--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_6注文検索画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_6注文検索画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8F7758-C46E-4B16-B648-039B509515B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFF1F2-7883-47F0-9C26-CA3E767139D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="166">
   <si>
     <t>作成日</t>
   </si>
@@ -1277,6 +1277,10 @@
   </si>
   <si>
     <t>CSVOut_Button_OnClick</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Calendar</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -9958,7 +9962,7 @@
       <c r="AJ41" s="24"/>
       <c r="AK41" s="24"/>
       <c r="AL41" s="28">
-        <v>43924</v>
+        <v>43959</v>
       </c>
       <c r="AM41" s="28"/>
       <c r="AN41" s="28"/>
@@ -11529,7 +11533,7 @@
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
       <c r="H67" s="30" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="I67" s="30"/>
       <c r="J67" s="30"/>
@@ -11574,7 +11578,7 @@
       <c r="F68" s="30"/>
       <c r="G68" s="30"/>
       <c r="H68" s="30" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="I68" s="30"/>
       <c r="J68" s="30"/>
@@ -12744,7 +12748,7 @@
       <c r="F94" s="30"/>
       <c r="G94" s="30"/>
       <c r="H94" s="30" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="I94" s="30"/>
       <c r="J94" s="30"/>
@@ -12789,7 +12793,7 @@
       <c r="F95" s="34"/>
       <c r="G95" s="35"/>
       <c r="H95" s="33" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="I95" s="34"/>
       <c r="J95" s="34"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_6注文検索画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_6注文検索画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFF1F2-7883-47F0-9C26-CA3E767139D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC30907-83E3-4B1A-B4A2-07327DA56A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="167">
   <si>
     <t>作成日</t>
   </si>
@@ -1281,6 +1275,16 @@
   </si>
   <si>
     <t>Calendar</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>int[] personnelState, 
+int[] orderState, string personnelId,
+string storeId, string orderId,
+date orderDayFrom,
+date orderDayTo,
+date completeDayFrom,
+date completeDayTo</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1583,12 +1587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1598,14 +1596,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1619,14 +1614,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7752,7 +7756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10504,256 +10508,256 @@
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="32"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="32"/>
-      <c r="AE44" s="32"/>
-      <c r="AF44" s="32"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="32"/>
-      <c r="AE45" s="32"/>
-      <c r="AF45" s="32"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="32"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31" t="s">
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31" t="s">
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31" t="s">
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
@@ -12784,90 +12788,90 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="33" t="s">
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="33" t="s">
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M95" s="34"/>
-      <c r="N95" s="34"/>
-      <c r="O95" s="34"/>
-      <c r="P95" s="34"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="34"/>
-      <c r="S95" s="34"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="33" t="s">
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="32"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="V95" s="34"/>
-      <c r="W95" s="34"/>
-      <c r="X95" s="34"/>
-      <c r="Y95" s="34"/>
-      <c r="Z95" s="34"/>
-      <c r="AA95" s="34"/>
-      <c r="AB95" s="34"/>
-      <c r="AC95" s="34"/>
-      <c r="AD95" s="34"/>
-      <c r="AE95" s="34"/>
-      <c r="AF95" s="35"/>
+      <c r="V95" s="32"/>
+      <c r="W95" s="32"/>
+      <c r="X95" s="32"/>
+      <c r="Y95" s="32"/>
+      <c r="Z95" s="32"/>
+      <c r="AA95" s="32"/>
+      <c r="AB95" s="32"/>
+      <c r="AC95" s="32"/>
+      <c r="AD95" s="32"/>
+      <c r="AE95" s="32"/>
+      <c r="AF95" s="33"/>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="33" t="s">
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="33" t="s">
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="M96" s="34"/>
-      <c r="N96" s="34"/>
-      <c r="O96" s="34"/>
-      <c r="P96" s="34"/>
-      <c r="Q96" s="34"/>
-      <c r="R96" s="34"/>
-      <c r="S96" s="34"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="33" t="s">
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
+      <c r="P96" s="32"/>
+      <c r="Q96" s="32"/>
+      <c r="R96" s="32"/>
+      <c r="S96" s="32"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="V96" s="34"/>
-      <c r="W96" s="34"/>
-      <c r="X96" s="34"/>
-      <c r="Y96" s="34"/>
-      <c r="Z96" s="34"/>
-      <c r="AA96" s="34"/>
-      <c r="AB96" s="34"/>
-      <c r="AC96" s="34"/>
-      <c r="AD96" s="34"/>
-      <c r="AE96" s="34"/>
-      <c r="AF96" s="35"/>
+      <c r="V96" s="32"/>
+      <c r="W96" s="32"/>
+      <c r="X96" s="32"/>
+      <c r="Y96" s="32"/>
+      <c r="Z96" s="32"/>
+      <c r="AA96" s="32"/>
+      <c r="AB96" s="32"/>
+      <c r="AC96" s="32"/>
+      <c r="AD96" s="32"/>
+      <c r="AE96" s="32"/>
+      <c r="AF96" s="33"/>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="22">
@@ -13384,206 +13388,28 @@
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="L109:T109"/>
-    <mergeCell ref="U109:AF109"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="L106:T106"/>
-    <mergeCell ref="U106:AF106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:T107"/>
-    <mergeCell ref="U107:AF107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L108:T108"/>
-    <mergeCell ref="U108:AF108"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AF103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="L104:T104"/>
-    <mergeCell ref="U104:AF104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="L105:T105"/>
-    <mergeCell ref="U105:AF105"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="L100:T100"/>
-    <mergeCell ref="U100:AF100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="L101:T101"/>
-    <mergeCell ref="U101:AF101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="L102:T102"/>
-    <mergeCell ref="U102:AF102"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="L98:T98"/>
-    <mergeCell ref="U98:AF98"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="L99:T99"/>
-    <mergeCell ref="U99:AF99"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:T95"/>
-    <mergeCell ref="U95:AF95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L96:T96"/>
-    <mergeCell ref="U96:AF96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="L97:T97"/>
-    <mergeCell ref="U97:AF97"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:T92"/>
-    <mergeCell ref="U92:AF92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:T93"/>
-    <mergeCell ref="U93:AF93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:T94"/>
-    <mergeCell ref="U94:AF94"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:T89"/>
-    <mergeCell ref="U89:AF89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:T90"/>
-    <mergeCell ref="U90:AF90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:T91"/>
-    <mergeCell ref="U91:AF91"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:T86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:T87"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:T88"/>
-    <mergeCell ref="U88:AF88"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:T83"/>
-    <mergeCell ref="U83:AF83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:T84"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:T85"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:T81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:T82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:T76"/>
-    <mergeCell ref="U76:AF76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:T77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:T74"/>
-    <mergeCell ref="U74:AF74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:T54"/>
+    <mergeCell ref="U54:AF54"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:T58"/>
@@ -13608,28 +13434,206 @@
     <mergeCell ref="U51:AF51"/>
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:T54"/>
-    <mergeCell ref="U54:AF54"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:T91"/>
+    <mergeCell ref="U91:AF91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:T92"/>
+    <mergeCell ref="U92:AF92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:T93"/>
+    <mergeCell ref="U93:AF93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:T94"/>
+    <mergeCell ref="U94:AF94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:T98"/>
+    <mergeCell ref="U98:AF98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:T99"/>
+    <mergeCell ref="U99:AF99"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:T95"/>
+    <mergeCell ref="U95:AF95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:T96"/>
+    <mergeCell ref="U96:AF96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:T97"/>
+    <mergeCell ref="U97:AF97"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:T100"/>
+    <mergeCell ref="U100:AF100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:T101"/>
+    <mergeCell ref="U101:AF101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:T102"/>
+    <mergeCell ref="U102:AF102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AF103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:T104"/>
+    <mergeCell ref="U104:AF104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:T105"/>
+    <mergeCell ref="U105:AF105"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:T109"/>
+    <mergeCell ref="U109:AF109"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:T106"/>
+    <mergeCell ref="U106:AF106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:T107"/>
+    <mergeCell ref="U107:AF107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:T108"/>
+    <mergeCell ref="U108:AF108"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13642,127 +13646,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24:X24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
@@ -13822,121 +13828,121 @@
       <c r="BC4" s="17"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="36" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="31" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="31"/>
-      <c r="AY5" s="31"/>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="36" t="s">
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37"/>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="38"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+      <c r="BV5" s="41"/>
+      <c r="BW5" s="41"/>
+      <c r="BX5" s="41"/>
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="41"/>
+      <c r="CA5" s="41"/>
+      <c r="CB5" s="41"/>
+      <c r="CC5" s="41"/>
+      <c r="CD5" s="41"/>
+      <c r="CE5" s="42"/>
     </row>
     <row r="6" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32">
+      <c r="A6" s="35">
         <v>1</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="39" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="30" t="s">
         <v>78</v>
       </c>
@@ -13984,53 +13990,53 @@
       <c r="BA6" s="30"/>
       <c r="BB6" s="30"/>
       <c r="BC6" s="30"/>
-      <c r="BD6" s="33" t="s">
+      <c r="BD6" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="BE6" s="34"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="34"/>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="34"/>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="34"/>
-      <c r="BN6" s="34"/>
-      <c r="BO6" s="34"/>
-      <c r="BP6" s="34"/>
-      <c r="BQ6" s="34"/>
-      <c r="BR6" s="34"/>
-      <c r="BS6" s="34"/>
-      <c r="BT6" s="34"/>
-      <c r="BU6" s="34"/>
-      <c r="BV6" s="34"/>
-      <c r="BW6" s="34"/>
-      <c r="BX6" s="34"/>
-      <c r="BY6" s="34"/>
-      <c r="BZ6" s="34"/>
-      <c r="CA6" s="34"/>
-      <c r="CB6" s="34"/>
-      <c r="CC6" s="34"/>
-      <c r="CD6" s="34"/>
-      <c r="CE6" s="35"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="32"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="32"/>
+      <c r="BY6" s="32"/>
+      <c r="BZ6" s="32"/>
+      <c r="CA6" s="32"/>
+      <c r="CB6" s="32"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
+      <c r="CE6" s="33"/>
     </row>
     <row r="7" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
+      <c r="A7" s="35">
         <f xml:space="preserve"> $A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -14074,51 +14080,51 @@
       <c r="BA7" s="30"/>
       <c r="BB7" s="30"/>
       <c r="BC7" s="30"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="34"/>
-      <c r="BL7" s="34"/>
-      <c r="BM7" s="34"/>
-      <c r="BN7" s="34"/>
-      <c r="BO7" s="34"/>
-      <c r="BP7" s="34"/>
-      <c r="BQ7" s="34"/>
-      <c r="BR7" s="34"/>
-      <c r="BS7" s="34"/>
-      <c r="BT7" s="34"/>
-      <c r="BU7" s="34"/>
-      <c r="BV7" s="34"/>
-      <c r="BW7" s="34"/>
-      <c r="BX7" s="34"/>
-      <c r="BY7" s="34"/>
-      <c r="BZ7" s="34"/>
-      <c r="CA7" s="34"/>
-      <c r="CB7" s="34"/>
-      <c r="CC7" s="34"/>
-      <c r="CD7" s="34"/>
-      <c r="CE7" s="35"/>
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="32"/>
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="32"/>
+      <c r="BJ7" s="32"/>
+      <c r="BK7" s="32"/>
+      <c r="BL7" s="32"/>
+      <c r="BM7" s="32"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="32"/>
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="32"/>
+      <c r="BS7" s="32"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="32"/>
+      <c r="BV7" s="32"/>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="32"/>
+      <c r="BY7" s="32"/>
+      <c r="BZ7" s="32"/>
+      <c r="CA7" s="32"/>
+      <c r="CB7" s="32"/>
+      <c r="CC7" s="32"/>
+      <c r="CD7" s="32"/>
+      <c r="CE7" s="33"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A8" s="32">
+      <c r="A8" s="35">
         <f xml:space="preserve"> $A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -14162,34 +14168,34 @@
       <c r="BA8" s="30"/>
       <c r="BB8" s="30"/>
       <c r="BC8" s="30"/>
-      <c r="BD8" s="33"/>
-      <c r="BE8" s="34"/>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="34"/>
-      <c r="BH8" s="34"/>
-      <c r="BI8" s="34"/>
-      <c r="BJ8" s="34"/>
-      <c r="BK8" s="34"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="34"/>
-      <c r="BN8" s="34"/>
-      <c r="BO8" s="34"/>
-      <c r="BP8" s="34"/>
-      <c r="BQ8" s="34"/>
-      <c r="BR8" s="34"/>
-      <c r="BS8" s="34"/>
-      <c r="BT8" s="34"/>
-      <c r="BU8" s="34"/>
-      <c r="BV8" s="34"/>
-      <c r="BW8" s="34"/>
-      <c r="BX8" s="34"/>
-      <c r="BY8" s="34"/>
-      <c r="BZ8" s="34"/>
-      <c r="CA8" s="34"/>
-      <c r="CB8" s="34"/>
-      <c r="CC8" s="34"/>
-      <c r="CD8" s="34"/>
-      <c r="CE8" s="35"/>
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="32"/>
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="32"/>
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="32"/>
+      <c r="BV8" s="32"/>
+      <c r="BW8" s="32"/>
+      <c r="BX8" s="32"/>
+      <c r="BY8" s="32"/>
+      <c r="BZ8" s="32"/>
+      <c r="CA8" s="32"/>
+      <c r="CB8" s="32"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="32"/>
+      <c r="CE8" s="33"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -14306,125 +14312,125 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="36" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="31" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31" t="s">
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31" t="s">
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="36" t="s">
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="BE11" s="37"/>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="37"/>
-      <c r="BH11" s="37"/>
-      <c r="BI11" s="37"/>
-      <c r="BJ11" s="37"/>
-      <c r="BK11" s="37"/>
-      <c r="BL11" s="37"/>
-      <c r="BM11" s="37"/>
-      <c r="BN11" s="37"/>
-      <c r="BO11" s="37"/>
-      <c r="BP11" s="37"/>
-      <c r="BQ11" s="37"/>
-      <c r="BR11" s="37"/>
-      <c r="BS11" s="37"/>
-      <c r="BT11" s="37"/>
-      <c r="BU11" s="37"/>
-      <c r="BV11" s="37"/>
-      <c r="BW11" s="37"/>
-      <c r="BX11" s="37"/>
-      <c r="BY11" s="37"/>
-      <c r="BZ11" s="37"/>
-      <c r="CA11" s="37"/>
-      <c r="CB11" s="37"/>
-      <c r="CC11" s="37"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="38"/>
+      <c r="BE11" s="41"/>
+      <c r="BF11" s="41"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="41"/>
+      <c r="BI11" s="41"/>
+      <c r="BJ11" s="41"/>
+      <c r="BK11" s="41"/>
+      <c r="BL11" s="41"/>
+      <c r="BM11" s="41"/>
+      <c r="BN11" s="41"/>
+      <c r="BO11" s="41"/>
+      <c r="BP11" s="41"/>
+      <c r="BQ11" s="41"/>
+      <c r="BR11" s="41"/>
+      <c r="BS11" s="41"/>
+      <c r="BT11" s="41"/>
+      <c r="BU11" s="41"/>
+      <c r="BV11" s="41"/>
+      <c r="BW11" s="41"/>
+      <c r="BX11" s="41"/>
+      <c r="BY11" s="41"/>
+      <c r="BZ11" s="41"/>
+      <c r="CA11" s="41"/>
+      <c r="CB11" s="41"/>
+      <c r="CC11" s="41"/>
+      <c r="CD11" s="41"/>
+      <c r="CE11" s="42"/>
     </row>
     <row r="12" spans="1:83" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32">
+      <c r="A12" s="35">
         <v>1</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="39" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="30" t="s">
         <v>131</v>
       </c>
@@ -14476,57 +14482,57 @@
       <c r="BA12" s="30"/>
       <c r="BB12" s="30"/>
       <c r="BC12" s="30"/>
-      <c r="BD12" s="33" t="s">
+      <c r="BD12" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="34"/>
-      <c r="BN12" s="34"/>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="34"/>
-      <c r="BQ12" s="34"/>
-      <c r="BR12" s="34"/>
-      <c r="BS12" s="34"/>
-      <c r="BT12" s="34"/>
-      <c r="BU12" s="34"/>
-      <c r="BV12" s="34"/>
-      <c r="BW12" s="34"/>
-      <c r="BX12" s="34"/>
-      <c r="BY12" s="34"/>
-      <c r="BZ12" s="34"/>
-      <c r="CA12" s="34"/>
-      <c r="CB12" s="34"/>
-      <c r="CC12" s="34"/>
-      <c r="CD12" s="34"/>
-      <c r="CE12" s="35"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="32"/>
+      <c r="BG12" s="32"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="32"/>
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="32"/>
+      <c r="BL12" s="32"/>
+      <c r="BM12" s="32"/>
+      <c r="BN12" s="32"/>
+      <c r="BO12" s="32"/>
+      <c r="BP12" s="32"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="32"/>
+      <c r="BS12" s="32"/>
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="32"/>
+      <c r="BV12" s="32"/>
+      <c r="BW12" s="32"/>
+      <c r="BX12" s="32"/>
+      <c r="BY12" s="32"/>
+      <c r="BZ12" s="32"/>
+      <c r="CA12" s="32"/>
+      <c r="CB12" s="32"/>
+      <c r="CC12" s="32"/>
+      <c r="CD12" s="32"/>
+      <c r="CE12" s="33"/>
     </row>
     <row r="13" spans="1:83" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+      <c r="A13" s="35">
         <f xml:space="preserve"> $A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="39" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="30" t="s">
         <v>131</v>
       </c>
@@ -14578,57 +14584,57 @@
       <c r="BA13" s="30"/>
       <c r="BB13" s="30"/>
       <c r="BC13" s="30"/>
-      <c r="BD13" s="33" t="s">
+      <c r="BD13" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="BE13" s="34"/>
-      <c r="BF13" s="34"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="34"/>
-      <c r="BI13" s="34"/>
-      <c r="BJ13" s="34"/>
-      <c r="BK13" s="34"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="34"/>
-      <c r="BN13" s="34"/>
-      <c r="BO13" s="34"/>
-      <c r="BP13" s="34"/>
-      <c r="BQ13" s="34"/>
-      <c r="BR13" s="34"/>
-      <c r="BS13" s="34"/>
-      <c r="BT13" s="34"/>
-      <c r="BU13" s="34"/>
-      <c r="BV13" s="34"/>
-      <c r="BW13" s="34"/>
-      <c r="BX13" s="34"/>
-      <c r="BY13" s="34"/>
-      <c r="BZ13" s="34"/>
-      <c r="CA13" s="34"/>
-      <c r="CB13" s="34"/>
-      <c r="CC13" s="34"/>
-      <c r="CD13" s="34"/>
-      <c r="CE13" s="35"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="32"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="32"/>
+      <c r="BJ13" s="32"/>
+      <c r="BK13" s="32"/>
+      <c r="BL13" s="32"/>
+      <c r="BM13" s="32"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="32"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="32"/>
+      <c r="BS13" s="32"/>
+      <c r="BT13" s="32"/>
+      <c r="BU13" s="32"/>
+      <c r="BV13" s="32"/>
+      <c r="BW13" s="32"/>
+      <c r="BX13" s="32"/>
+      <c r="BY13" s="32"/>
+      <c r="BZ13" s="32"/>
+      <c r="CA13" s="32"/>
+      <c r="CB13" s="32"/>
+      <c r="CC13" s="32"/>
+      <c r="CD13" s="32"/>
+      <c r="CE13" s="33"/>
     </row>
     <row r="14" spans="1:83" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32">
+      <c r="A14" s="35">
         <f t="shared" ref="A14:A21" si="0" xml:space="preserve"> $A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="39" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="30" t="s">
         <v>131</v>
       </c>
@@ -14680,57 +14686,57 @@
       <c r="BA14" s="30"/>
       <c r="BB14" s="30"/>
       <c r="BC14" s="30"/>
-      <c r="BD14" s="33" t="s">
+      <c r="BD14" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="34"/>
-      <c r="BR14" s="34"/>
-      <c r="BS14" s="34"/>
-      <c r="BT14" s="34"/>
-      <c r="BU14" s="34"/>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="34"/>
-      <c r="BY14" s="34"/>
-      <c r="BZ14" s="34"/>
-      <c r="CA14" s="34"/>
-      <c r="CB14" s="34"/>
-      <c r="CC14" s="34"/>
-      <c r="CD14" s="34"/>
-      <c r="CE14" s="35"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="32"/>
+      <c r="BJ14" s="32"/>
+      <c r="BK14" s="32"/>
+      <c r="BL14" s="32"/>
+      <c r="BM14" s="32"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="32"/>
+      <c r="BP14" s="32"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="32"/>
+      <c r="BS14" s="32"/>
+      <c r="BT14" s="32"/>
+      <c r="BU14" s="32"/>
+      <c r="BV14" s="32"/>
+      <c r="BW14" s="32"/>
+      <c r="BX14" s="32"/>
+      <c r="BY14" s="32"/>
+      <c r="BZ14" s="32"/>
+      <c r="CA14" s="32"/>
+      <c r="CB14" s="32"/>
+      <c r="CC14" s="32"/>
+      <c r="CD14" s="32"/>
+      <c r="CE14" s="33"/>
     </row>
     <row r="15" spans="1:83" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+      <c r="A15" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="42" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
       <c r="M15" s="30" t="s">
         <v>131</v>
       </c>
@@ -14782,53 +14788,53 @@
       <c r="BA15" s="30"/>
       <c r="BB15" s="30"/>
       <c r="BC15" s="30"/>
-      <c r="BD15" s="33" t="s">
+      <c r="BD15" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="34"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="34"/>
-      <c r="BN15" s="34"/>
-      <c r="BO15" s="34"/>
-      <c r="BP15" s="34"/>
-      <c r="BQ15" s="34"/>
-      <c r="BR15" s="34"/>
-      <c r="BS15" s="34"/>
-      <c r="BT15" s="34"/>
-      <c r="BU15" s="34"/>
-      <c r="BV15" s="34"/>
-      <c r="BW15" s="34"/>
-      <c r="BX15" s="34"/>
-      <c r="BY15" s="34"/>
-      <c r="BZ15" s="34"/>
-      <c r="CA15" s="34"/>
-      <c r="CB15" s="34"/>
-      <c r="CC15" s="34"/>
-      <c r="CD15" s="34"/>
-      <c r="CE15" s="35"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="32"/>
+      <c r="BL15" s="32"/>
+      <c r="BM15" s="32"/>
+      <c r="BN15" s="32"/>
+      <c r="BO15" s="32"/>
+      <c r="BP15" s="32"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="32"/>
+      <c r="BS15" s="32"/>
+      <c r="BT15" s="32"/>
+      <c r="BU15" s="32"/>
+      <c r="BV15" s="32"/>
+      <c r="BW15" s="32"/>
+      <c r="BX15" s="32"/>
+      <c r="BY15" s="32"/>
+      <c r="BZ15" s="32"/>
+      <c r="CA15" s="32"/>
+      <c r="CB15" s="32"/>
+      <c r="CC15" s="32"/>
+      <c r="CD15" s="32"/>
+      <c r="CE15" s="33"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A16" s="32">
+      <c r="A16" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
@@ -14872,51 +14878,51 @@
       <c r="BA16" s="30"/>
       <c r="BB16" s="30"/>
       <c r="BC16" s="30"/>
-      <c r="BD16" s="33"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="34"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="34"/>
-      <c r="BN16" s="34"/>
-      <c r="BO16" s="34"/>
-      <c r="BP16" s="34"/>
-      <c r="BQ16" s="34"/>
-      <c r="BR16" s="34"/>
-      <c r="BS16" s="34"/>
-      <c r="BT16" s="34"/>
-      <c r="BU16" s="34"/>
-      <c r="BV16" s="34"/>
-      <c r="BW16" s="34"/>
-      <c r="BX16" s="34"/>
-      <c r="BY16" s="34"/>
-      <c r="BZ16" s="34"/>
-      <c r="CA16" s="34"/>
-      <c r="CB16" s="34"/>
-      <c r="CC16" s="34"/>
-      <c r="CD16" s="34"/>
-      <c r="CE16" s="35"/>
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="32"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="32"/>
+      <c r="BI16" s="32"/>
+      <c r="BJ16" s="32"/>
+      <c r="BK16" s="32"/>
+      <c r="BL16" s="32"/>
+      <c r="BM16" s="32"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="32"/>
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="32"/>
+      <c r="BS16" s="32"/>
+      <c r="BT16" s="32"/>
+      <c r="BU16" s="32"/>
+      <c r="BV16" s="32"/>
+      <c r="BW16" s="32"/>
+      <c r="BX16" s="32"/>
+      <c r="BY16" s="32"/>
+      <c r="BZ16" s="32"/>
+      <c r="CA16" s="32"/>
+      <c r="CB16" s="32"/>
+      <c r="CC16" s="32"/>
+      <c r="CD16" s="32"/>
+      <c r="CE16" s="33"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A17" s="32">
+      <c r="A17" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
@@ -14960,51 +14966,51 @@
       <c r="BA17" s="30"/>
       <c r="BB17" s="30"/>
       <c r="BC17" s="30"/>
-      <c r="BD17" s="33"/>
-      <c r="BE17" s="34"/>
-      <c r="BF17" s="34"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="34"/>
-      <c r="BI17" s="34"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="34"/>
-      <c r="BL17" s="34"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="34"/>
-      <c r="BO17" s="34"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="34"/>
-      <c r="BR17" s="34"/>
-      <c r="BS17" s="34"/>
-      <c r="BT17" s="34"/>
-      <c r="BU17" s="34"/>
-      <c r="BV17" s="34"/>
-      <c r="BW17" s="34"/>
-      <c r="BX17" s="34"/>
-      <c r="BY17" s="34"/>
-      <c r="BZ17" s="34"/>
-      <c r="CA17" s="34"/>
-      <c r="CB17" s="34"/>
-      <c r="CC17" s="34"/>
-      <c r="CD17" s="34"/>
-      <c r="CE17" s="35"/>
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="32"/>
+      <c r="BF17" s="32"/>
+      <c r="BG17" s="32"/>
+      <c r="BH17" s="32"/>
+      <c r="BI17" s="32"/>
+      <c r="BJ17" s="32"/>
+      <c r="BK17" s="32"/>
+      <c r="BL17" s="32"/>
+      <c r="BM17" s="32"/>
+      <c r="BN17" s="32"/>
+      <c r="BO17" s="32"/>
+      <c r="BP17" s="32"/>
+      <c r="BQ17" s="32"/>
+      <c r="BR17" s="32"/>
+      <c r="BS17" s="32"/>
+      <c r="BT17" s="32"/>
+      <c r="BU17" s="32"/>
+      <c r="BV17" s="32"/>
+      <c r="BW17" s="32"/>
+      <c r="BX17" s="32"/>
+      <c r="BY17" s="32"/>
+      <c r="BZ17" s="32"/>
+      <c r="CA17" s="32"/>
+      <c r="CB17" s="32"/>
+      <c r="CC17" s="32"/>
+      <c r="CD17" s="32"/>
+      <c r="CE17" s="33"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A18" s="32">
+      <c r="A18" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
@@ -15048,51 +15054,51 @@
       <c r="BA18" s="30"/>
       <c r="BB18" s="30"/>
       <c r="BC18" s="30"/>
-      <c r="BD18" s="33"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="34"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="34"/>
-      <c r="BR18" s="34"/>
-      <c r="BS18" s="34"/>
-      <c r="BT18" s="34"/>
-      <c r="BU18" s="34"/>
-      <c r="BV18" s="34"/>
-      <c r="BW18" s="34"/>
-      <c r="BX18" s="34"/>
-      <c r="BY18" s="34"/>
-      <c r="BZ18" s="34"/>
-      <c r="CA18" s="34"/>
-      <c r="CB18" s="34"/>
-      <c r="CC18" s="34"/>
-      <c r="CD18" s="34"/>
-      <c r="CE18" s="35"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="32"/>
+      <c r="BF18" s="32"/>
+      <c r="BG18" s="32"/>
+      <c r="BH18" s="32"/>
+      <c r="BI18" s="32"/>
+      <c r="BJ18" s="32"/>
+      <c r="BK18" s="32"/>
+      <c r="BL18" s="32"/>
+      <c r="BM18" s="32"/>
+      <c r="BN18" s="32"/>
+      <c r="BO18" s="32"/>
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="32"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="32"/>
+      <c r="BV18" s="32"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="32"/>
+      <c r="BY18" s="32"/>
+      <c r="BZ18" s="32"/>
+      <c r="CA18" s="32"/>
+      <c r="CB18" s="32"/>
+      <c r="CC18" s="32"/>
+      <c r="CD18" s="32"/>
+      <c r="CE18" s="33"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A19" s="32">
+      <c r="A19" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
@@ -15136,51 +15142,51 @@
       <c r="BA19" s="30"/>
       <c r="BB19" s="30"/>
       <c r="BC19" s="30"/>
-      <c r="BD19" s="33"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="34"/>
-      <c r="BR19" s="34"/>
-      <c r="BS19" s="34"/>
-      <c r="BT19" s="34"/>
-      <c r="BU19" s="34"/>
-      <c r="BV19" s="34"/>
-      <c r="BW19" s="34"/>
-      <c r="BX19" s="34"/>
-      <c r="BY19" s="34"/>
-      <c r="BZ19" s="34"/>
-      <c r="CA19" s="34"/>
-      <c r="CB19" s="34"/>
-      <c r="CC19" s="34"/>
-      <c r="CD19" s="34"/>
-      <c r="CE19" s="35"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="32"/>
+      <c r="BF19" s="32"/>
+      <c r="BG19" s="32"/>
+      <c r="BH19" s="32"/>
+      <c r="BI19" s="32"/>
+      <c r="BJ19" s="32"/>
+      <c r="BK19" s="32"/>
+      <c r="BL19" s="32"/>
+      <c r="BM19" s="32"/>
+      <c r="BN19" s="32"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="32"/>
+      <c r="BV19" s="32"/>
+      <c r="BW19" s="32"/>
+      <c r="BX19" s="32"/>
+      <c r="BY19" s="32"/>
+      <c r="BZ19" s="32"/>
+      <c r="CA19" s="32"/>
+      <c r="CB19" s="32"/>
+      <c r="CC19" s="32"/>
+      <c r="CD19" s="32"/>
+      <c r="CE19" s="33"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A20" s="32">
+      <c r="A20" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
@@ -15224,51 +15230,51 @@
       <c r="BA20" s="30"/>
       <c r="BB20" s="30"/>
       <c r="BC20" s="30"/>
-      <c r="BD20" s="33"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="34"/>
-      <c r="BL20" s="34"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="34"/>
-      <c r="BO20" s="34"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="34"/>
-      <c r="BR20" s="34"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="34"/>
-      <c r="BU20" s="34"/>
-      <c r="BV20" s="34"/>
-      <c r="BW20" s="34"/>
-      <c r="BX20" s="34"/>
-      <c r="BY20" s="34"/>
-      <c r="BZ20" s="34"/>
-      <c r="CA20" s="34"/>
-      <c r="CB20" s="34"/>
-      <c r="CC20" s="34"/>
-      <c r="CD20" s="34"/>
-      <c r="CE20" s="35"/>
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="32"/>
+      <c r="BF20" s="32"/>
+      <c r="BG20" s="32"/>
+      <c r="BH20" s="32"/>
+      <c r="BI20" s="32"/>
+      <c r="BJ20" s="32"/>
+      <c r="BK20" s="32"/>
+      <c r="BL20" s="32"/>
+      <c r="BM20" s="32"/>
+      <c r="BN20" s="32"/>
+      <c r="BO20" s="32"/>
+      <c r="BP20" s="32"/>
+      <c r="BQ20" s="32"/>
+      <c r="BR20" s="32"/>
+      <c r="BS20" s="32"/>
+      <c r="BT20" s="32"/>
+      <c r="BU20" s="32"/>
+      <c r="BV20" s="32"/>
+      <c r="BW20" s="32"/>
+      <c r="BX20" s="32"/>
+      <c r="BY20" s="32"/>
+      <c r="BZ20" s="32"/>
+      <c r="CA20" s="32"/>
+      <c r="CB20" s="32"/>
+      <c r="CC20" s="32"/>
+      <c r="CD20" s="32"/>
+      <c r="CE20" s="33"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A21" s="32">
+      <c r="A21" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="41"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
@@ -15312,155 +15318,155 @@
       <c r="BA21" s="30"/>
       <c r="BB21" s="30"/>
       <c r="BC21" s="30"/>
-      <c r="BD21" s="33"/>
-      <c r="BE21" s="34"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="34"/>
-      <c r="BP21" s="34"/>
-      <c r="BQ21" s="34"/>
-      <c r="BR21" s="34"/>
-      <c r="BS21" s="34"/>
-      <c r="BT21" s="34"/>
-      <c r="BU21" s="34"/>
-      <c r="BV21" s="34"/>
-      <c r="BW21" s="34"/>
-      <c r="BX21" s="34"/>
-      <c r="BY21" s="34"/>
-      <c r="BZ21" s="34"/>
-      <c r="CA21" s="34"/>
-      <c r="CB21" s="34"/>
-      <c r="CC21" s="34"/>
-      <c r="CD21" s="34"/>
-      <c r="CE21" s="35"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="32"/>
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="32"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="32"/>
+      <c r="BK21" s="32"/>
+      <c r="BL21" s="32"/>
+      <c r="BM21" s="32"/>
+      <c r="BN21" s="32"/>
+      <c r="BO21" s="32"/>
+      <c r="BP21" s="32"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="32"/>
+      <c r="BS21" s="32"/>
+      <c r="BT21" s="32"/>
+      <c r="BU21" s="32"/>
+      <c r="BV21" s="32"/>
+      <c r="BW21" s="32"/>
+      <c r="BX21" s="32"/>
+      <c r="BY21" s="32"/>
+      <c r="BZ21" s="32"/>
+      <c r="CA21" s="32"/>
+      <c r="CB21" s="32"/>
+      <c r="CC21" s="32"/>
+      <c r="CD21" s="32"/>
+      <c r="CE21" s="33"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="36" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="31" t="s">
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31" t="s">
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31" t="s">
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="31"/>
-      <c r="AZ24" s="31"/>
-      <c r="BA24" s="31"/>
-      <c r="BB24" s="31"/>
-      <c r="BC24" s="31"/>
-      <c r="BD24" s="36" t="s">
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="34"/>
+      <c r="AT24" s="34"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="34"/>
+      <c r="AW24" s="34"/>
+      <c r="AX24" s="34"/>
+      <c r="AY24" s="34"/>
+      <c r="AZ24" s="34"/>
+      <c r="BA24" s="34"/>
+      <c r="BB24" s="34"/>
+      <c r="BC24" s="34"/>
+      <c r="BD24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="BE24" s="37"/>
-      <c r="BF24" s="37"/>
-      <c r="BG24" s="37"/>
-      <c r="BH24" s="37"/>
-      <c r="BI24" s="37"/>
-      <c r="BJ24" s="37"/>
-      <c r="BK24" s="37"/>
-      <c r="BL24" s="37"/>
-      <c r="BM24" s="37"/>
-      <c r="BN24" s="37"/>
-      <c r="BO24" s="37"/>
-      <c r="BP24" s="37"/>
-      <c r="BQ24" s="37"/>
-      <c r="BR24" s="37"/>
-      <c r="BS24" s="37"/>
-      <c r="BT24" s="37"/>
-      <c r="BU24" s="37"/>
-      <c r="BV24" s="37"/>
-      <c r="BW24" s="37"/>
-      <c r="BX24" s="37"/>
-      <c r="BY24" s="37"/>
-      <c r="BZ24" s="37"/>
-      <c r="CA24" s="37"/>
-      <c r="CB24" s="37"/>
-      <c r="CC24" s="37"/>
-      <c r="CD24" s="37"/>
-      <c r="CE24" s="38"/>
+      <c r="BE24" s="41"/>
+      <c r="BF24" s="41"/>
+      <c r="BG24" s="41"/>
+      <c r="BH24" s="41"/>
+      <c r="BI24" s="41"/>
+      <c r="BJ24" s="41"/>
+      <c r="BK24" s="41"/>
+      <c r="BL24" s="41"/>
+      <c r="BM24" s="41"/>
+      <c r="BN24" s="41"/>
+      <c r="BO24" s="41"/>
+      <c r="BP24" s="41"/>
+      <c r="BQ24" s="41"/>
+      <c r="BR24" s="41"/>
+      <c r="BS24" s="41"/>
+      <c r="BT24" s="41"/>
+      <c r="BU24" s="41"/>
+      <c r="BV24" s="41"/>
+      <c r="BW24" s="41"/>
+      <c r="BX24" s="41"/>
+      <c r="BY24" s="41"/>
+      <c r="BZ24" s="41"/>
+      <c r="CA24" s="41"/>
+      <c r="CB24" s="41"/>
+      <c r="CC24" s="41"/>
+      <c r="CD24" s="41"/>
+      <c r="CE24" s="42"/>
     </row>
-    <row r="25" spans="1:83" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+    <row r="25" spans="1:83" ht="123.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35">
         <v>1</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="39" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="30" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
@@ -15508,53 +15514,53 @@
       <c r="BA25" s="30"/>
       <c r="BB25" s="30"/>
       <c r="BC25" s="30"/>
-      <c r="BD25" s="33" t="s">
+      <c r="BD25" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="BE25" s="34"/>
-      <c r="BF25" s="34"/>
-      <c r="BG25" s="34"/>
-      <c r="BH25" s="34"/>
-      <c r="BI25" s="34"/>
-      <c r="BJ25" s="34"/>
-      <c r="BK25" s="34"/>
-      <c r="BL25" s="34"/>
-      <c r="BM25" s="34"/>
-      <c r="BN25" s="34"/>
-      <c r="BO25" s="34"/>
-      <c r="BP25" s="34"/>
-      <c r="BQ25" s="34"/>
-      <c r="BR25" s="34"/>
-      <c r="BS25" s="34"/>
-      <c r="BT25" s="34"/>
-      <c r="BU25" s="34"/>
-      <c r="BV25" s="34"/>
-      <c r="BW25" s="34"/>
-      <c r="BX25" s="34"/>
-      <c r="BY25" s="34"/>
-      <c r="BZ25" s="34"/>
-      <c r="CA25" s="34"/>
-      <c r="CB25" s="34"/>
-      <c r="CC25" s="34"/>
-      <c r="CD25" s="34"/>
-      <c r="CE25" s="35"/>
+      <c r="BE25" s="32"/>
+      <c r="BF25" s="32"/>
+      <c r="BG25" s="32"/>
+      <c r="BH25" s="32"/>
+      <c r="BI25" s="32"/>
+      <c r="BJ25" s="32"/>
+      <c r="BK25" s="32"/>
+      <c r="BL25" s="32"/>
+      <c r="BM25" s="32"/>
+      <c r="BN25" s="32"/>
+      <c r="BO25" s="32"/>
+      <c r="BP25" s="32"/>
+      <c r="BQ25" s="32"/>
+      <c r="BR25" s="32"/>
+      <c r="BS25" s="32"/>
+      <c r="BT25" s="32"/>
+      <c r="BU25" s="32"/>
+      <c r="BV25" s="32"/>
+      <c r="BW25" s="32"/>
+      <c r="BX25" s="32"/>
+      <c r="BY25" s="32"/>
+      <c r="BZ25" s="32"/>
+      <c r="CA25" s="32"/>
+      <c r="CB25" s="32"/>
+      <c r="CC25" s="32"/>
+      <c r="CD25" s="32"/>
+      <c r="CE25" s="33"/>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+      <c r="A26" s="35">
         <f xml:space="preserve"> $A25 + 1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="41"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
@@ -15598,51 +15604,51 @@
       <c r="BA26" s="30"/>
       <c r="BB26" s="30"/>
       <c r="BC26" s="30"/>
-      <c r="BD26" s="33"/>
-      <c r="BE26" s="34"/>
-      <c r="BF26" s="34"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="34"/>
-      <c r="BI26" s="34"/>
-      <c r="BJ26" s="34"/>
-      <c r="BK26" s="34"/>
-      <c r="BL26" s="34"/>
-      <c r="BM26" s="34"/>
-      <c r="BN26" s="34"/>
-      <c r="BO26" s="34"/>
-      <c r="BP26" s="34"/>
-      <c r="BQ26" s="34"/>
-      <c r="BR26" s="34"/>
-      <c r="BS26" s="34"/>
-      <c r="BT26" s="34"/>
-      <c r="BU26" s="34"/>
-      <c r="BV26" s="34"/>
-      <c r="BW26" s="34"/>
-      <c r="BX26" s="34"/>
-      <c r="BY26" s="34"/>
-      <c r="BZ26" s="34"/>
-      <c r="CA26" s="34"/>
-      <c r="CB26" s="34"/>
-      <c r="CC26" s="34"/>
-      <c r="CD26" s="34"/>
-      <c r="CE26" s="35"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="32"/>
+      <c r="BF26" s="32"/>
+      <c r="BG26" s="32"/>
+      <c r="BH26" s="32"/>
+      <c r="BI26" s="32"/>
+      <c r="BJ26" s="32"/>
+      <c r="BK26" s="32"/>
+      <c r="BL26" s="32"/>
+      <c r="BM26" s="32"/>
+      <c r="BN26" s="32"/>
+      <c r="BO26" s="32"/>
+      <c r="BP26" s="32"/>
+      <c r="BQ26" s="32"/>
+      <c r="BR26" s="32"/>
+      <c r="BS26" s="32"/>
+      <c r="BT26" s="32"/>
+      <c r="BU26" s="32"/>
+      <c r="BV26" s="32"/>
+      <c r="BW26" s="32"/>
+      <c r="BX26" s="32"/>
+      <c r="BY26" s="32"/>
+      <c r="BZ26" s="32"/>
+      <c r="CA26" s="32"/>
+      <c r="CB26" s="32"/>
+      <c r="CC26" s="32"/>
+      <c r="CD26" s="32"/>
+      <c r="CE26" s="33"/>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A27" s="32">
+      <c r="A27" s="35">
         <f t="shared" ref="A27:A29" si="1" xml:space="preserve"> $A26 + 1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
@@ -15686,51 +15692,51 @@
       <c r="BA27" s="30"/>
       <c r="BB27" s="30"/>
       <c r="BC27" s="30"/>
-      <c r="BD27" s="33"/>
-      <c r="BE27" s="34"/>
-      <c r="BF27" s="34"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
-      <c r="BK27" s="34"/>
-      <c r="BL27" s="34"/>
-      <c r="BM27" s="34"/>
-      <c r="BN27" s="34"/>
-      <c r="BO27" s="34"/>
-      <c r="BP27" s="34"/>
-      <c r="BQ27" s="34"/>
-      <c r="BR27" s="34"/>
-      <c r="BS27" s="34"/>
-      <c r="BT27" s="34"/>
-      <c r="BU27" s="34"/>
-      <c r="BV27" s="34"/>
-      <c r="BW27" s="34"/>
-      <c r="BX27" s="34"/>
-      <c r="BY27" s="34"/>
-      <c r="BZ27" s="34"/>
-      <c r="CA27" s="34"/>
-      <c r="CB27" s="34"/>
-      <c r="CC27" s="34"/>
-      <c r="CD27" s="34"/>
-      <c r="CE27" s="35"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="32"/>
+      <c r="BF27" s="32"/>
+      <c r="BG27" s="32"/>
+      <c r="BH27" s="32"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="32"/>
+      <c r="BK27" s="32"/>
+      <c r="BL27" s="32"/>
+      <c r="BM27" s="32"/>
+      <c r="BN27" s="32"/>
+      <c r="BO27" s="32"/>
+      <c r="BP27" s="32"/>
+      <c r="BQ27" s="32"/>
+      <c r="BR27" s="32"/>
+      <c r="BS27" s="32"/>
+      <c r="BT27" s="32"/>
+      <c r="BU27" s="32"/>
+      <c r="BV27" s="32"/>
+      <c r="BW27" s="32"/>
+      <c r="BX27" s="32"/>
+      <c r="BY27" s="32"/>
+      <c r="BZ27" s="32"/>
+      <c r="CA27" s="32"/>
+      <c r="CB27" s="32"/>
+      <c r="CC27" s="32"/>
+      <c r="CD27" s="32"/>
+      <c r="CE27" s="33"/>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A28" s="32">
+      <c r="A28" s="35">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
@@ -15774,51 +15780,51 @@
       <c r="BA28" s="30"/>
       <c r="BB28" s="30"/>
       <c r="BC28" s="30"/>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="34"/>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="34"/>
-      <c r="BK28" s="34"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="34"/>
-      <c r="BN28" s="34"/>
-      <c r="BO28" s="34"/>
-      <c r="BP28" s="34"/>
-      <c r="BQ28" s="34"/>
-      <c r="BR28" s="34"/>
-      <c r="BS28" s="34"/>
-      <c r="BT28" s="34"/>
-      <c r="BU28" s="34"/>
-      <c r="BV28" s="34"/>
-      <c r="BW28" s="34"/>
-      <c r="BX28" s="34"/>
-      <c r="BY28" s="34"/>
-      <c r="BZ28" s="34"/>
-      <c r="CA28" s="34"/>
-      <c r="CB28" s="34"/>
-      <c r="CC28" s="34"/>
-      <c r="CD28" s="34"/>
-      <c r="CE28" s="35"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="32"/>
+      <c r="BF28" s="32"/>
+      <c r="BG28" s="32"/>
+      <c r="BH28" s="32"/>
+      <c r="BI28" s="32"/>
+      <c r="BJ28" s="32"/>
+      <c r="BK28" s="32"/>
+      <c r="BL28" s="32"/>
+      <c r="BM28" s="32"/>
+      <c r="BN28" s="32"/>
+      <c r="BO28" s="32"/>
+      <c r="BP28" s="32"/>
+      <c r="BQ28" s="32"/>
+      <c r="BR28" s="32"/>
+      <c r="BS28" s="32"/>
+      <c r="BT28" s="32"/>
+      <c r="BU28" s="32"/>
+      <c r="BV28" s="32"/>
+      <c r="BW28" s="32"/>
+      <c r="BX28" s="32"/>
+      <c r="BY28" s="32"/>
+      <c r="BZ28" s="32"/>
+      <c r="CA28" s="32"/>
+      <c r="CB28" s="32"/>
+      <c r="CC28" s="32"/>
+      <c r="CD28" s="32"/>
+      <c r="CE28" s="33"/>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A29" s="32">
+      <c r="A29" s="35">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
@@ -15862,77 +15868,129 @@
       <c r="BA29" s="30"/>
       <c r="BB29" s="30"/>
       <c r="BC29" s="30"/>
-      <c r="BD29" s="33"/>
-      <c r="BE29" s="34"/>
-      <c r="BF29" s="34"/>
-      <c r="BG29" s="34"/>
-      <c r="BH29" s="34"/>
-      <c r="BI29" s="34"/>
-      <c r="BJ29" s="34"/>
-      <c r="BK29" s="34"/>
-      <c r="BL29" s="34"/>
-      <c r="BM29" s="34"/>
-      <c r="BN29" s="34"/>
-      <c r="BO29" s="34"/>
-      <c r="BP29" s="34"/>
-      <c r="BQ29" s="34"/>
-      <c r="BR29" s="34"/>
-      <c r="BS29" s="34"/>
-      <c r="BT29" s="34"/>
-      <c r="BU29" s="34"/>
-      <c r="BV29" s="34"/>
-      <c r="BW29" s="34"/>
-      <c r="BX29" s="34"/>
-      <c r="BY29" s="34"/>
-      <c r="BZ29" s="34"/>
-      <c r="CA29" s="34"/>
-      <c r="CB29" s="34"/>
-      <c r="CC29" s="34"/>
-      <c r="CD29" s="34"/>
-      <c r="CE29" s="35"/>
+      <c r="BD29" s="31"/>
+      <c r="BE29" s="32"/>
+      <c r="BF29" s="32"/>
+      <c r="BG29" s="32"/>
+      <c r="BH29" s="32"/>
+      <c r="BI29" s="32"/>
+      <c r="BJ29" s="32"/>
+      <c r="BK29" s="32"/>
+      <c r="BL29" s="32"/>
+      <c r="BM29" s="32"/>
+      <c r="BN29" s="32"/>
+      <c r="BO29" s="32"/>
+      <c r="BP29" s="32"/>
+      <c r="BQ29" s="32"/>
+      <c r="BR29" s="32"/>
+      <c r="BS29" s="32"/>
+      <c r="BT29" s="32"/>
+      <c r="BU29" s="32"/>
+      <c r="BV29" s="32"/>
+      <c r="BW29" s="32"/>
+      <c r="BX29" s="32"/>
+      <c r="BY29" s="32"/>
+      <c r="BZ29" s="32"/>
+      <c r="CA29" s="32"/>
+      <c r="CB29" s="32"/>
+      <c r="CC29" s="32"/>
+      <c r="CD29" s="32"/>
+      <c r="CE29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="V21:AD21"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="AN21:BC21"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="V20:AD20"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AN20:BC20"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AN18:BC18"/>
-    <mergeCell ref="BD18:CE18"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="AK24:BC24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="V17:AD17"/>
+    <mergeCell ref="AE17:AM17"/>
+    <mergeCell ref="AN17:BC17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="V19:AD19"/>
+    <mergeCell ref="AE19:AM19"/>
+    <mergeCell ref="AN19:BC19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="Y26:AJ26"/>
+    <mergeCell ref="AK26:BC26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="Y25:AJ25"/>
+    <mergeCell ref="AK25:BC25"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AK28:BC28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="AK27:BC27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:L28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="M29:X29"/>
     <mergeCell ref="Y29:AJ29"/>
@@ -15957,98 +16015,46 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="M28:X28"/>
     <mergeCell ref="Y28:AJ28"/>
-    <mergeCell ref="AK28:BC28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="M27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="AK27:BC27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="Y26:AJ26"/>
-    <mergeCell ref="AK26:BC26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="Y25:AJ25"/>
-    <mergeCell ref="AK25:BC25"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK24:BC24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="V17:AD17"/>
-    <mergeCell ref="AE17:AM17"/>
-    <mergeCell ref="AN17:BC17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="V19:AD19"/>
-    <mergeCell ref="AE19:AM19"/>
-    <mergeCell ref="AN19:BC19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AN18:BC18"/>
+    <mergeCell ref="BD18:CE18"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="V21:AD21"/>
+    <mergeCell ref="AE21:AM21"/>
+    <mergeCell ref="AN21:BC21"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="V20:AD20"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AN20:BC20"/>
+    <mergeCell ref="BD20:CE20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16065,90 +16071,90 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
     </row>
     <row r="3" spans="1:35" ht="238.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>1</v>
       </c>
       <c r="B3" s="43"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="44" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="43">
@@ -16156,39 +16162,39 @@
         <v>2</v>
       </c>
       <c r="B4" s="43"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="43">
@@ -16196,39 +16202,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="43"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="43">
@@ -16236,39 +16242,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="43">
@@ -16276,42 +16282,48 @@
         <v>5</v>
       </c>
       <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -16324,12 +16336,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_6注文検索画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_6注文検索画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC30907-83E3-4B1A-B4A2-07327DA56A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAAD1A5-479F-4328-82F0-4CED77FA7E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1587,6 +1587,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1596,11 +1602,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1614,23 +1623,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7756,7 +7756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10508,256 +10508,256 @@
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="35"/>
-      <c r="AF43" s="35"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="32"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="35"/>
-      <c r="AE44" s="35"/>
-      <c r="AF44" s="35"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="32"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="32"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="35"/>
-      <c r="AD46" s="35"/>
-      <c r="AE46" s="35"/>
-      <c r="AF46" s="35"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="32"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34" t="s">
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34" t="s">
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34" t="s">
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="31"/>
+      <c r="AA49" s="31"/>
+      <c r="AB49" s="31"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="31"/>
+      <c r="AF49" s="31"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
@@ -12788,90 +12788,90 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="31" t="s">
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="31" t="s">
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M95" s="32"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="32"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="32"/>
-      <c r="T95" s="33"/>
-      <c r="U95" s="31" t="s">
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="34"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="V95" s="32"/>
-      <c r="W95" s="32"/>
-      <c r="X95" s="32"/>
-      <c r="Y95" s="32"/>
-      <c r="Z95" s="32"/>
-      <c r="AA95" s="32"/>
-      <c r="AB95" s="32"/>
-      <c r="AC95" s="32"/>
-      <c r="AD95" s="32"/>
-      <c r="AE95" s="32"/>
-      <c r="AF95" s="33"/>
+      <c r="V95" s="34"/>
+      <c r="W95" s="34"/>
+      <c r="X95" s="34"/>
+      <c r="Y95" s="34"/>
+      <c r="Z95" s="34"/>
+      <c r="AA95" s="34"/>
+      <c r="AB95" s="34"/>
+      <c r="AC95" s="34"/>
+      <c r="AD95" s="34"/>
+      <c r="AE95" s="34"/>
+      <c r="AF95" s="35"/>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="31" t="s">
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I96" s="32"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="31" t="s">
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="M96" s="32"/>
-      <c r="N96" s="32"/>
-      <c r="O96" s="32"/>
-      <c r="P96" s="32"/>
-      <c r="Q96" s="32"/>
-      <c r="R96" s="32"/>
-      <c r="S96" s="32"/>
-      <c r="T96" s="33"/>
-      <c r="U96" s="31" t="s">
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="34"/>
+      <c r="S96" s="34"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="V96" s="32"/>
-      <c r="W96" s="32"/>
-      <c r="X96" s="32"/>
-      <c r="Y96" s="32"/>
-      <c r="Z96" s="32"/>
-      <c r="AA96" s="32"/>
-      <c r="AB96" s="32"/>
-      <c r="AC96" s="32"/>
-      <c r="AD96" s="32"/>
-      <c r="AE96" s="32"/>
-      <c r="AF96" s="33"/>
+      <c r="V96" s="34"/>
+      <c r="W96" s="34"/>
+      <c r="X96" s="34"/>
+      <c r="Y96" s="34"/>
+      <c r="Z96" s="34"/>
+      <c r="AA96" s="34"/>
+      <c r="AB96" s="34"/>
+      <c r="AC96" s="34"/>
+      <c r="AD96" s="34"/>
+      <c r="AE96" s="34"/>
+      <c r="AF96" s="35"/>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="22">
@@ -13388,28 +13388,206 @@
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:T54"/>
-    <mergeCell ref="U54:AF54"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:T109"/>
+    <mergeCell ref="U109:AF109"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:T106"/>
+    <mergeCell ref="U106:AF106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:T107"/>
+    <mergeCell ref="U107:AF107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:T108"/>
+    <mergeCell ref="U108:AF108"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AF103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:T104"/>
+    <mergeCell ref="U104:AF104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:T105"/>
+    <mergeCell ref="U105:AF105"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:T100"/>
+    <mergeCell ref="U100:AF100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:T101"/>
+    <mergeCell ref="U101:AF101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:T102"/>
+    <mergeCell ref="U102:AF102"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:T98"/>
+    <mergeCell ref="U98:AF98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:T99"/>
+    <mergeCell ref="U99:AF99"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:T95"/>
+    <mergeCell ref="U95:AF95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:T96"/>
+    <mergeCell ref="U96:AF96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:T97"/>
+    <mergeCell ref="U97:AF97"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:T92"/>
+    <mergeCell ref="U92:AF92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:T93"/>
+    <mergeCell ref="U93:AF93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:T94"/>
+    <mergeCell ref="U94:AF94"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:T91"/>
+    <mergeCell ref="U91:AF91"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:T58"/>
@@ -13434,206 +13612,28 @@
     <mergeCell ref="U51:AF51"/>
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="H52:K52"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:T74"/>
-    <mergeCell ref="U74:AF74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:T76"/>
-    <mergeCell ref="U76:AF76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:T77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:T81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:T82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:T83"/>
-    <mergeCell ref="U83:AF83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:T84"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:T85"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:T86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:T87"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:T88"/>
-    <mergeCell ref="U88:AF88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:T89"/>
-    <mergeCell ref="U89:AF89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:T90"/>
-    <mergeCell ref="U90:AF90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:T91"/>
-    <mergeCell ref="U91:AF91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:T92"/>
-    <mergeCell ref="U92:AF92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:T93"/>
-    <mergeCell ref="U93:AF93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:T94"/>
-    <mergeCell ref="U94:AF94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="L98:T98"/>
-    <mergeCell ref="U98:AF98"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="L99:T99"/>
-    <mergeCell ref="U99:AF99"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:T95"/>
-    <mergeCell ref="U95:AF95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L96:T96"/>
-    <mergeCell ref="U96:AF96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="L97:T97"/>
-    <mergeCell ref="U97:AF97"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="L100:T100"/>
-    <mergeCell ref="U100:AF100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="L101:T101"/>
-    <mergeCell ref="U101:AF101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="L102:T102"/>
-    <mergeCell ref="U102:AF102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AF103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="L104:T104"/>
-    <mergeCell ref="U104:AF104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="L105:T105"/>
-    <mergeCell ref="U105:AF105"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="L109:T109"/>
-    <mergeCell ref="U109:AF109"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="L106:T106"/>
-    <mergeCell ref="U106:AF106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:T107"/>
-    <mergeCell ref="U107:AF107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L108:T108"/>
-    <mergeCell ref="U108:AF108"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:T54"/>
+    <mergeCell ref="U54:AF54"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13646,129 +13646,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24:X24"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="34"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
@@ -13828,121 +13826,121 @@
       <c r="BC4" s="17"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="40" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="34" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34" t="s">
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="34"/>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="40" t="s">
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="31"/>
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="31"/>
+      <c r="BD5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="41"/>
-      <c r="BW5" s="41"/>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="41"/>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41"/>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="42"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="38"/>
     </row>
     <row r="6" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="32">
         <v>1</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="36" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="30" t="s">
         <v>78</v>
       </c>
@@ -13990,53 +13988,53 @@
       <c r="BA6" s="30"/>
       <c r="BB6" s="30"/>
       <c r="BC6" s="30"/>
-      <c r="BD6" s="31" t="s">
+      <c r="BD6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="32"/>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BW6" s="32"/>
-      <c r="BX6" s="32"/>
-      <c r="BY6" s="32"/>
-      <c r="BZ6" s="32"/>
-      <c r="CA6" s="32"/>
-      <c r="CB6" s="32"/>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
-      <c r="CE6" s="33"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="34"/>
+      <c r="BU6" s="34"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="34"/>
+      <c r="BY6" s="34"/>
+      <c r="BZ6" s="34"/>
+      <c r="CA6" s="34"/>
+      <c r="CB6" s="34"/>
+      <c r="CC6" s="34"/>
+      <c r="CD6" s="34"/>
+      <c r="CE6" s="35"/>
     </row>
     <row r="7" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="32">
         <f xml:space="preserve"> $A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -14080,51 +14078,51 @@
       <c r="BA7" s="30"/>
       <c r="BB7" s="30"/>
       <c r="BC7" s="30"/>
-      <c r="BD7" s="31"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="32"/>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="32"/>
-      <c r="BL7" s="32"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="32"/>
-      <c r="BO7" s="32"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="32"/>
-      <c r="BR7" s="32"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="32"/>
-      <c r="BU7" s="32"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="32"/>
-      <c r="BX7" s="32"/>
-      <c r="BY7" s="32"/>
-      <c r="BZ7" s="32"/>
-      <c r="CA7" s="32"/>
-      <c r="CB7" s="32"/>
-      <c r="CC7" s="32"/>
-      <c r="CD7" s="32"/>
-      <c r="CE7" s="33"/>
+      <c r="BD7" s="33"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="34"/>
+      <c r="BL7" s="34"/>
+      <c r="BM7" s="34"/>
+      <c r="BN7" s="34"/>
+      <c r="BO7" s="34"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="34"/>
+      <c r="BR7" s="34"/>
+      <c r="BS7" s="34"/>
+      <c r="BT7" s="34"/>
+      <c r="BU7" s="34"/>
+      <c r="BV7" s="34"/>
+      <c r="BW7" s="34"/>
+      <c r="BX7" s="34"/>
+      <c r="BY7" s="34"/>
+      <c r="BZ7" s="34"/>
+      <c r="CA7" s="34"/>
+      <c r="CB7" s="34"/>
+      <c r="CC7" s="34"/>
+      <c r="CD7" s="34"/>
+      <c r="CE7" s="35"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="32">
         <f xml:space="preserve"> $A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -14168,34 +14166,34 @@
       <c r="BA8" s="30"/>
       <c r="BB8" s="30"/>
       <c r="BC8" s="30"/>
-      <c r="BD8" s="31"/>
-      <c r="BE8" s="32"/>
-      <c r="BF8" s="32"/>
-      <c r="BG8" s="32"/>
-      <c r="BH8" s="32"/>
-      <c r="BI8" s="32"/>
-      <c r="BJ8" s="32"/>
-      <c r="BK8" s="32"/>
-      <c r="BL8" s="32"/>
-      <c r="BM8" s="32"/>
-      <c r="BN8" s="32"/>
-      <c r="BO8" s="32"/>
-      <c r="BP8" s="32"/>
-      <c r="BQ8" s="32"/>
-      <c r="BR8" s="32"/>
-      <c r="BS8" s="32"/>
-      <c r="BT8" s="32"/>
-      <c r="BU8" s="32"/>
-      <c r="BV8" s="32"/>
-      <c r="BW8" s="32"/>
-      <c r="BX8" s="32"/>
-      <c r="BY8" s="32"/>
-      <c r="BZ8" s="32"/>
-      <c r="CA8" s="32"/>
-      <c r="CB8" s="32"/>
-      <c r="CC8" s="32"/>
-      <c r="CD8" s="32"/>
-      <c r="CE8" s="33"/>
+      <c r="BD8" s="33"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="34"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="34"/>
+      <c r="BN8" s="34"/>
+      <c r="BO8" s="34"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="34"/>
+      <c r="BR8" s="34"/>
+      <c r="BS8" s="34"/>
+      <c r="BT8" s="34"/>
+      <c r="BU8" s="34"/>
+      <c r="BV8" s="34"/>
+      <c r="BW8" s="34"/>
+      <c r="BX8" s="34"/>
+      <c r="BY8" s="34"/>
+      <c r="BZ8" s="34"/>
+      <c r="CA8" s="34"/>
+      <c r="CB8" s="34"/>
+      <c r="CC8" s="34"/>
+      <c r="CD8" s="34"/>
+      <c r="CE8" s="35"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -14312,125 +14310,125 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="40" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="34" t="s">
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34" t="s">
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34" t="s">
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34" t="s">
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="40" t="s">
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
-      <c r="BJ11" s="41"/>
-      <c r="BK11" s="41"/>
-      <c r="BL11" s="41"/>
-      <c r="BM11" s="41"/>
-      <c r="BN11" s="41"/>
-      <c r="BO11" s="41"/>
-      <c r="BP11" s="41"/>
-      <c r="BQ11" s="41"/>
-      <c r="BR11" s="41"/>
-      <c r="BS11" s="41"/>
-      <c r="BT11" s="41"/>
-      <c r="BU11" s="41"/>
-      <c r="BV11" s="41"/>
-      <c r="BW11" s="41"/>
-      <c r="BX11" s="41"/>
-      <c r="BY11" s="41"/>
-      <c r="BZ11" s="41"/>
-      <c r="CA11" s="41"/>
-      <c r="CB11" s="41"/>
-      <c r="CC11" s="41"/>
-      <c r="CD11" s="41"/>
-      <c r="CE11" s="42"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="37"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="37"/>
+      <c r="BN11" s="37"/>
+      <c r="BO11" s="37"/>
+      <c r="BP11" s="37"/>
+      <c r="BQ11" s="37"/>
+      <c r="BR11" s="37"/>
+      <c r="BS11" s="37"/>
+      <c r="BT11" s="37"/>
+      <c r="BU11" s="37"/>
+      <c r="BV11" s="37"/>
+      <c r="BW11" s="37"/>
+      <c r="BX11" s="37"/>
+      <c r="BY11" s="37"/>
+      <c r="BZ11" s="37"/>
+      <c r="CA11" s="37"/>
+      <c r="CB11" s="37"/>
+      <c r="CC11" s="37"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="38"/>
     </row>
     <row r="12" spans="1:83" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="32">
         <v>1</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="36" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
       <c r="M12" s="30" t="s">
         <v>131</v>
       </c>
@@ -14482,57 +14480,57 @@
       <c r="BA12" s="30"/>
       <c r="BB12" s="30"/>
       <c r="BC12" s="30"/>
-      <c r="BD12" s="31" t="s">
+      <c r="BD12" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="BE12" s="32"/>
-      <c r="BF12" s="32"/>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="32"/>
-      <c r="BI12" s="32"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="32"/>
-      <c r="BL12" s="32"/>
-      <c r="BM12" s="32"/>
-      <c r="BN12" s="32"/>
-      <c r="BO12" s="32"/>
-      <c r="BP12" s="32"/>
-      <c r="BQ12" s="32"/>
-      <c r="BR12" s="32"/>
-      <c r="BS12" s="32"/>
-      <c r="BT12" s="32"/>
-      <c r="BU12" s="32"/>
-      <c r="BV12" s="32"/>
-      <c r="BW12" s="32"/>
-      <c r="BX12" s="32"/>
-      <c r="BY12" s="32"/>
-      <c r="BZ12" s="32"/>
-      <c r="CA12" s="32"/>
-      <c r="CB12" s="32"/>
-      <c r="CC12" s="32"/>
-      <c r="CD12" s="32"/>
-      <c r="CE12" s="33"/>
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="34"/>
+      <c r="BI12" s="34"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="34"/>
+      <c r="BL12" s="34"/>
+      <c r="BM12" s="34"/>
+      <c r="BN12" s="34"/>
+      <c r="BO12" s="34"/>
+      <c r="BP12" s="34"/>
+      <c r="BQ12" s="34"/>
+      <c r="BR12" s="34"/>
+      <c r="BS12" s="34"/>
+      <c r="BT12" s="34"/>
+      <c r="BU12" s="34"/>
+      <c r="BV12" s="34"/>
+      <c r="BW12" s="34"/>
+      <c r="BX12" s="34"/>
+      <c r="BY12" s="34"/>
+      <c r="BZ12" s="34"/>
+      <c r="CA12" s="34"/>
+      <c r="CB12" s="34"/>
+      <c r="CC12" s="34"/>
+      <c r="CD12" s="34"/>
+      <c r="CE12" s="35"/>
     </row>
     <row r="13" spans="1:83" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+      <c r="A13" s="32">
         <f xml:space="preserve"> $A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="36" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
       <c r="M13" s="30" t="s">
         <v>131</v>
       </c>
@@ -14584,57 +14582,57 @@
       <c r="BA13" s="30"/>
       <c r="BB13" s="30"/>
       <c r="BC13" s="30"/>
-      <c r="BD13" s="31" t="s">
+      <c r="BD13" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="BE13" s="32"/>
-      <c r="BF13" s="32"/>
-      <c r="BG13" s="32"/>
-      <c r="BH13" s="32"/>
-      <c r="BI13" s="32"/>
-      <c r="BJ13" s="32"/>
-      <c r="BK13" s="32"/>
-      <c r="BL13" s="32"/>
-      <c r="BM13" s="32"/>
-      <c r="BN13" s="32"/>
-      <c r="BO13" s="32"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="32"/>
-      <c r="BR13" s="32"/>
-      <c r="BS13" s="32"/>
-      <c r="BT13" s="32"/>
-      <c r="BU13" s="32"/>
-      <c r="BV13" s="32"/>
-      <c r="BW13" s="32"/>
-      <c r="BX13" s="32"/>
-      <c r="BY13" s="32"/>
-      <c r="BZ13" s="32"/>
-      <c r="CA13" s="32"/>
-      <c r="CB13" s="32"/>
-      <c r="CC13" s="32"/>
-      <c r="CD13" s="32"/>
-      <c r="CE13" s="33"/>
+      <c r="BE13" s="34"/>
+      <c r="BF13" s="34"/>
+      <c r="BG13" s="34"/>
+      <c r="BH13" s="34"/>
+      <c r="BI13" s="34"/>
+      <c r="BJ13" s="34"/>
+      <c r="BK13" s="34"/>
+      <c r="BL13" s="34"/>
+      <c r="BM13" s="34"/>
+      <c r="BN13" s="34"/>
+      <c r="BO13" s="34"/>
+      <c r="BP13" s="34"/>
+      <c r="BQ13" s="34"/>
+      <c r="BR13" s="34"/>
+      <c r="BS13" s="34"/>
+      <c r="BT13" s="34"/>
+      <c r="BU13" s="34"/>
+      <c r="BV13" s="34"/>
+      <c r="BW13" s="34"/>
+      <c r="BX13" s="34"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="34"/>
+      <c r="CA13" s="34"/>
+      <c r="CB13" s="34"/>
+      <c r="CC13" s="34"/>
+      <c r="CD13" s="34"/>
+      <c r="CE13" s="35"/>
     </row>
     <row r="14" spans="1:83" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="32">
         <f t="shared" ref="A14:A21" si="0" xml:space="preserve"> $A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="36" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="30" t="s">
         <v>131</v>
       </c>
@@ -14686,57 +14684,57 @@
       <c r="BA14" s="30"/>
       <c r="BB14" s="30"/>
       <c r="BC14" s="30"/>
-      <c r="BD14" s="31" t="s">
+      <c r="BD14" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="BE14" s="32"/>
-      <c r="BF14" s="32"/>
-      <c r="BG14" s="32"/>
-      <c r="BH14" s="32"/>
-      <c r="BI14" s="32"/>
-      <c r="BJ14" s="32"/>
-      <c r="BK14" s="32"/>
-      <c r="BL14" s="32"/>
-      <c r="BM14" s="32"/>
-      <c r="BN14" s="32"/>
-      <c r="BO14" s="32"/>
-      <c r="BP14" s="32"/>
-      <c r="BQ14" s="32"/>
-      <c r="BR14" s="32"/>
-      <c r="BS14" s="32"/>
-      <c r="BT14" s="32"/>
-      <c r="BU14" s="32"/>
-      <c r="BV14" s="32"/>
-      <c r="BW14" s="32"/>
-      <c r="BX14" s="32"/>
-      <c r="BY14" s="32"/>
-      <c r="BZ14" s="32"/>
-      <c r="CA14" s="32"/>
-      <c r="CB14" s="32"/>
-      <c r="CC14" s="32"/>
-      <c r="CD14" s="32"/>
-      <c r="CE14" s="33"/>
+      <c r="BE14" s="34"/>
+      <c r="BF14" s="34"/>
+      <c r="BG14" s="34"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="34"/>
+      <c r="BJ14" s="34"/>
+      <c r="BK14" s="34"/>
+      <c r="BL14" s="34"/>
+      <c r="BM14" s="34"/>
+      <c r="BN14" s="34"/>
+      <c r="BO14" s="34"/>
+      <c r="BP14" s="34"/>
+      <c r="BQ14" s="34"/>
+      <c r="BR14" s="34"/>
+      <c r="BS14" s="34"/>
+      <c r="BT14" s="34"/>
+      <c r="BU14" s="34"/>
+      <c r="BV14" s="34"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="34"/>
+      <c r="BY14" s="34"/>
+      <c r="BZ14" s="34"/>
+      <c r="CA14" s="34"/>
+      <c r="CB14" s="34"/>
+      <c r="CC14" s="34"/>
+      <c r="CD14" s="34"/>
+      <c r="CE14" s="35"/>
     </row>
     <row r="15" spans="1:83" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="39" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="30" t="s">
         <v>131</v>
       </c>
@@ -14788,53 +14786,53 @@
       <c r="BA15" s="30"/>
       <c r="BB15" s="30"/>
       <c r="BC15" s="30"/>
-      <c r="BD15" s="31" t="s">
+      <c r="BD15" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="BE15" s="32"/>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
-      <c r="BI15" s="32"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="32"/>
-      <c r="BL15" s="32"/>
-      <c r="BM15" s="32"/>
-      <c r="BN15" s="32"/>
-      <c r="BO15" s="32"/>
-      <c r="BP15" s="32"/>
-      <c r="BQ15" s="32"/>
-      <c r="BR15" s="32"/>
-      <c r="BS15" s="32"/>
-      <c r="BT15" s="32"/>
-      <c r="BU15" s="32"/>
-      <c r="BV15" s="32"/>
-      <c r="BW15" s="32"/>
-      <c r="BX15" s="32"/>
-      <c r="BY15" s="32"/>
-      <c r="BZ15" s="32"/>
-      <c r="CA15" s="32"/>
-      <c r="CB15" s="32"/>
-      <c r="CC15" s="32"/>
-      <c r="CD15" s="32"/>
-      <c r="CE15" s="33"/>
+      <c r="BE15" s="34"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="34"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="34"/>
+      <c r="BJ15" s="34"/>
+      <c r="BK15" s="34"/>
+      <c r="BL15" s="34"/>
+      <c r="BM15" s="34"/>
+      <c r="BN15" s="34"/>
+      <c r="BO15" s="34"/>
+      <c r="BP15" s="34"/>
+      <c r="BQ15" s="34"/>
+      <c r="BR15" s="34"/>
+      <c r="BS15" s="34"/>
+      <c r="BT15" s="34"/>
+      <c r="BU15" s="34"/>
+      <c r="BV15" s="34"/>
+      <c r="BW15" s="34"/>
+      <c r="BX15" s="34"/>
+      <c r="BY15" s="34"/>
+      <c r="BZ15" s="34"/>
+      <c r="CA15" s="34"/>
+      <c r="CB15" s="34"/>
+      <c r="CC15" s="34"/>
+      <c r="CD15" s="34"/>
+      <c r="CE15" s="35"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
@@ -14878,51 +14876,51 @@
       <c r="BA16" s="30"/>
       <c r="BB16" s="30"/>
       <c r="BC16" s="30"/>
-      <c r="BD16" s="31"/>
-      <c r="BE16" s="32"/>
-      <c r="BF16" s="32"/>
-      <c r="BG16" s="32"/>
-      <c r="BH16" s="32"/>
-      <c r="BI16" s="32"/>
-      <c r="BJ16" s="32"/>
-      <c r="BK16" s="32"/>
-      <c r="BL16" s="32"/>
-      <c r="BM16" s="32"/>
-      <c r="BN16" s="32"/>
-      <c r="BO16" s="32"/>
-      <c r="BP16" s="32"/>
-      <c r="BQ16" s="32"/>
-      <c r="BR16" s="32"/>
-      <c r="BS16" s="32"/>
-      <c r="BT16" s="32"/>
-      <c r="BU16" s="32"/>
-      <c r="BV16" s="32"/>
-      <c r="BW16" s="32"/>
-      <c r="BX16" s="32"/>
-      <c r="BY16" s="32"/>
-      <c r="BZ16" s="32"/>
-      <c r="CA16" s="32"/>
-      <c r="CB16" s="32"/>
-      <c r="CC16" s="32"/>
-      <c r="CD16" s="32"/>
-      <c r="CE16" s="33"/>
+      <c r="BD16" s="33"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="34"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="34"/>
+      <c r="BJ16" s="34"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="34"/>
+      <c r="BM16" s="34"/>
+      <c r="BN16" s="34"/>
+      <c r="BO16" s="34"/>
+      <c r="BP16" s="34"/>
+      <c r="BQ16" s="34"/>
+      <c r="BR16" s="34"/>
+      <c r="BS16" s="34"/>
+      <c r="BT16" s="34"/>
+      <c r="BU16" s="34"/>
+      <c r="BV16" s="34"/>
+      <c r="BW16" s="34"/>
+      <c r="BX16" s="34"/>
+      <c r="BY16" s="34"/>
+      <c r="BZ16" s="34"/>
+      <c r="CA16" s="34"/>
+      <c r="CB16" s="34"/>
+      <c r="CC16" s="34"/>
+      <c r="CD16" s="34"/>
+      <c r="CE16" s="35"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
+      <c r="A17" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
@@ -14966,51 +14964,51 @@
       <c r="BA17" s="30"/>
       <c r="BB17" s="30"/>
       <c r="BC17" s="30"/>
-      <c r="BD17" s="31"/>
-      <c r="BE17" s="32"/>
-      <c r="BF17" s="32"/>
-      <c r="BG17" s="32"/>
-      <c r="BH17" s="32"/>
-      <c r="BI17" s="32"/>
-      <c r="BJ17" s="32"/>
-      <c r="BK17" s="32"/>
-      <c r="BL17" s="32"/>
-      <c r="BM17" s="32"/>
-      <c r="BN17" s="32"/>
-      <c r="BO17" s="32"/>
-      <c r="BP17" s="32"/>
-      <c r="BQ17" s="32"/>
-      <c r="BR17" s="32"/>
-      <c r="BS17" s="32"/>
-      <c r="BT17" s="32"/>
-      <c r="BU17" s="32"/>
-      <c r="BV17" s="32"/>
-      <c r="BW17" s="32"/>
-      <c r="BX17" s="32"/>
-      <c r="BY17" s="32"/>
-      <c r="BZ17" s="32"/>
-      <c r="CA17" s="32"/>
-      <c r="CB17" s="32"/>
-      <c r="CC17" s="32"/>
-      <c r="CD17" s="32"/>
-      <c r="CE17" s="33"/>
+      <c r="BD17" s="33"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="34"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="34"/>
+      <c r="BJ17" s="34"/>
+      <c r="BK17" s="34"/>
+      <c r="BL17" s="34"/>
+      <c r="BM17" s="34"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="34"/>
+      <c r="BP17" s="34"/>
+      <c r="BQ17" s="34"/>
+      <c r="BR17" s="34"/>
+      <c r="BS17" s="34"/>
+      <c r="BT17" s="34"/>
+      <c r="BU17" s="34"/>
+      <c r="BV17" s="34"/>
+      <c r="BW17" s="34"/>
+      <c r="BX17" s="34"/>
+      <c r="BY17" s="34"/>
+      <c r="BZ17" s="34"/>
+      <c r="CA17" s="34"/>
+      <c r="CB17" s="34"/>
+      <c r="CC17" s="34"/>
+      <c r="CD17" s="34"/>
+      <c r="CE17" s="35"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="A18" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
@@ -15054,51 +15052,51 @@
       <c r="BA18" s="30"/>
       <c r="BB18" s="30"/>
       <c r="BC18" s="30"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="32"/>
-      <c r="BG18" s="32"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="32"/>
-      <c r="BK18" s="32"/>
-      <c r="BL18" s="32"/>
-      <c r="BM18" s="32"/>
-      <c r="BN18" s="32"/>
-      <c r="BO18" s="32"/>
-      <c r="BP18" s="32"/>
-      <c r="BQ18" s="32"/>
-      <c r="BR18" s="32"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="32"/>
-      <c r="BU18" s="32"/>
-      <c r="BV18" s="32"/>
-      <c r="BW18" s="32"/>
-      <c r="BX18" s="32"/>
-      <c r="BY18" s="32"/>
-      <c r="BZ18" s="32"/>
-      <c r="CA18" s="32"/>
-      <c r="CB18" s="32"/>
-      <c r="CC18" s="32"/>
-      <c r="CD18" s="32"/>
-      <c r="CE18" s="33"/>
+      <c r="BD18" s="33"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="34"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="34"/>
+      <c r="BJ18" s="34"/>
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="34"/>
+      <c r="BM18" s="34"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="34"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="34"/>
+      <c r="BR18" s="34"/>
+      <c r="BS18" s="34"/>
+      <c r="BT18" s="34"/>
+      <c r="BU18" s="34"/>
+      <c r="BV18" s="34"/>
+      <c r="BW18" s="34"/>
+      <c r="BX18" s="34"/>
+      <c r="BY18" s="34"/>
+      <c r="BZ18" s="34"/>
+      <c r="CA18" s="34"/>
+      <c r="CB18" s="34"/>
+      <c r="CC18" s="34"/>
+      <c r="CD18" s="34"/>
+      <c r="CE18" s="35"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
+      <c r="A19" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
@@ -15142,51 +15140,51 @@
       <c r="BA19" s="30"/>
       <c r="BB19" s="30"/>
       <c r="BC19" s="30"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="32"/>
-      <c r="BF19" s="32"/>
-      <c r="BG19" s="32"/>
-      <c r="BH19" s="32"/>
-      <c r="BI19" s="32"/>
-      <c r="BJ19" s="32"/>
-      <c r="BK19" s="32"/>
-      <c r="BL19" s="32"/>
-      <c r="BM19" s="32"/>
-      <c r="BN19" s="32"/>
-      <c r="BO19" s="32"/>
-      <c r="BP19" s="32"/>
-      <c r="BQ19" s="32"/>
-      <c r="BR19" s="32"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="32"/>
-      <c r="BU19" s="32"/>
-      <c r="BV19" s="32"/>
-      <c r="BW19" s="32"/>
-      <c r="BX19" s="32"/>
-      <c r="BY19" s="32"/>
-      <c r="BZ19" s="32"/>
-      <c r="CA19" s="32"/>
-      <c r="CB19" s="32"/>
-      <c r="CC19" s="32"/>
-      <c r="CD19" s="32"/>
-      <c r="CE19" s="33"/>
+      <c r="BD19" s="33"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="34"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="34"/>
+      <c r="BJ19" s="34"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="34"/>
+      <c r="BM19" s="34"/>
+      <c r="BN19" s="34"/>
+      <c r="BO19" s="34"/>
+      <c r="BP19" s="34"/>
+      <c r="BQ19" s="34"/>
+      <c r="BR19" s="34"/>
+      <c r="BS19" s="34"/>
+      <c r="BT19" s="34"/>
+      <c r="BU19" s="34"/>
+      <c r="BV19" s="34"/>
+      <c r="BW19" s="34"/>
+      <c r="BX19" s="34"/>
+      <c r="BY19" s="34"/>
+      <c r="BZ19" s="34"/>
+      <c r="CA19" s="34"/>
+      <c r="CB19" s="34"/>
+      <c r="CC19" s="34"/>
+      <c r="CD19" s="34"/>
+      <c r="CE19" s="35"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
+      <c r="A20" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
@@ -15230,51 +15228,51 @@
       <c r="BA20" s="30"/>
       <c r="BB20" s="30"/>
       <c r="BC20" s="30"/>
-      <c r="BD20" s="31"/>
-      <c r="BE20" s="32"/>
-      <c r="BF20" s="32"/>
-      <c r="BG20" s="32"/>
-      <c r="BH20" s="32"/>
-      <c r="BI20" s="32"/>
-      <c r="BJ20" s="32"/>
-      <c r="BK20" s="32"/>
-      <c r="BL20" s="32"/>
-      <c r="BM20" s="32"/>
-      <c r="BN20" s="32"/>
-      <c r="BO20" s="32"/>
-      <c r="BP20" s="32"/>
-      <c r="BQ20" s="32"/>
-      <c r="BR20" s="32"/>
-      <c r="BS20" s="32"/>
-      <c r="BT20" s="32"/>
-      <c r="BU20" s="32"/>
-      <c r="BV20" s="32"/>
-      <c r="BW20" s="32"/>
-      <c r="BX20" s="32"/>
-      <c r="BY20" s="32"/>
-      <c r="BZ20" s="32"/>
-      <c r="CA20" s="32"/>
-      <c r="CB20" s="32"/>
-      <c r="CC20" s="32"/>
-      <c r="CD20" s="32"/>
-      <c r="CE20" s="33"/>
+      <c r="BD20" s="33"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="34"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="34"/>
+      <c r="BJ20" s="34"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="34"/>
+      <c r="BM20" s="34"/>
+      <c r="BN20" s="34"/>
+      <c r="BO20" s="34"/>
+      <c r="BP20" s="34"/>
+      <c r="BQ20" s="34"/>
+      <c r="BR20" s="34"/>
+      <c r="BS20" s="34"/>
+      <c r="BT20" s="34"/>
+      <c r="BU20" s="34"/>
+      <c r="BV20" s="34"/>
+      <c r="BW20" s="34"/>
+      <c r="BX20" s="34"/>
+      <c r="BY20" s="34"/>
+      <c r="BZ20" s="34"/>
+      <c r="CA20" s="34"/>
+      <c r="CB20" s="34"/>
+      <c r="CC20" s="34"/>
+      <c r="CD20" s="34"/>
+      <c r="CE20" s="35"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
+      <c r="A21" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
@@ -15318,153 +15316,153 @@
       <c r="BA21" s="30"/>
       <c r="BB21" s="30"/>
       <c r="BC21" s="30"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="32"/>
-      <c r="BF21" s="32"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="32"/>
-      <c r="BI21" s="32"/>
-      <c r="BJ21" s="32"/>
-      <c r="BK21" s="32"/>
-      <c r="BL21" s="32"/>
-      <c r="BM21" s="32"/>
-      <c r="BN21" s="32"/>
-      <c r="BO21" s="32"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="32"/>
-      <c r="BR21" s="32"/>
-      <c r="BS21" s="32"/>
-      <c r="BT21" s="32"/>
-      <c r="BU21" s="32"/>
-      <c r="BV21" s="32"/>
-      <c r="BW21" s="32"/>
-      <c r="BX21" s="32"/>
-      <c r="BY21" s="32"/>
-      <c r="BZ21" s="32"/>
-      <c r="CA21" s="32"/>
-      <c r="CB21" s="32"/>
-      <c r="CC21" s="32"/>
-      <c r="CD21" s="32"/>
-      <c r="CE21" s="33"/>
+      <c r="BD21" s="33"/>
+      <c r="BE21" s="34"/>
+      <c r="BF21" s="34"/>
+      <c r="BG21" s="34"/>
+      <c r="BH21" s="34"/>
+      <c r="BI21" s="34"/>
+      <c r="BJ21" s="34"/>
+      <c r="BK21" s="34"/>
+      <c r="BL21" s="34"/>
+      <c r="BM21" s="34"/>
+      <c r="BN21" s="34"/>
+      <c r="BO21" s="34"/>
+      <c r="BP21" s="34"/>
+      <c r="BQ21" s="34"/>
+      <c r="BR21" s="34"/>
+      <c r="BS21" s="34"/>
+      <c r="BT21" s="34"/>
+      <c r="BU21" s="34"/>
+      <c r="BV21" s="34"/>
+      <c r="BW21" s="34"/>
+      <c r="BX21" s="34"/>
+      <c r="BY21" s="34"/>
+      <c r="BZ21" s="34"/>
+      <c r="CA21" s="34"/>
+      <c r="CB21" s="34"/>
+      <c r="CC21" s="34"/>
+      <c r="CD21" s="34"/>
+      <c r="CE21" s="35"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="40" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="34" t="s">
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34" t="s">
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34" t="s">
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="34"/>
-      <c r="BA24" s="34"/>
-      <c r="BB24" s="34"/>
-      <c r="BC24" s="34"/>
-      <c r="BD24" s="40" t="s">
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="31"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
+      <c r="AW24" s="31"/>
+      <c r="AX24" s="31"/>
+      <c r="AY24" s="31"/>
+      <c r="AZ24" s="31"/>
+      <c r="BA24" s="31"/>
+      <c r="BB24" s="31"/>
+      <c r="BC24" s="31"/>
+      <c r="BD24" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="BE24" s="41"/>
-      <c r="BF24" s="41"/>
-      <c r="BG24" s="41"/>
-      <c r="BH24" s="41"/>
-      <c r="BI24" s="41"/>
-      <c r="BJ24" s="41"/>
-      <c r="BK24" s="41"/>
-      <c r="BL24" s="41"/>
-      <c r="BM24" s="41"/>
-      <c r="BN24" s="41"/>
-      <c r="BO24" s="41"/>
-      <c r="BP24" s="41"/>
-      <c r="BQ24" s="41"/>
-      <c r="BR24" s="41"/>
-      <c r="BS24" s="41"/>
-      <c r="BT24" s="41"/>
-      <c r="BU24" s="41"/>
-      <c r="BV24" s="41"/>
-      <c r="BW24" s="41"/>
-      <c r="BX24" s="41"/>
-      <c r="BY24" s="41"/>
-      <c r="BZ24" s="41"/>
-      <c r="CA24" s="41"/>
-      <c r="CB24" s="41"/>
-      <c r="CC24" s="41"/>
-      <c r="CD24" s="41"/>
-      <c r="CE24" s="42"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="37"/>
+      <c r="BH24" s="37"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="37"/>
+      <c r="BL24" s="37"/>
+      <c r="BM24" s="37"/>
+      <c r="BN24" s="37"/>
+      <c r="BO24" s="37"/>
+      <c r="BP24" s="37"/>
+      <c r="BQ24" s="37"/>
+      <c r="BR24" s="37"/>
+      <c r="BS24" s="37"/>
+      <c r="BT24" s="37"/>
+      <c r="BU24" s="37"/>
+      <c r="BV24" s="37"/>
+      <c r="BW24" s="37"/>
+      <c r="BX24" s="37"/>
+      <c r="BY24" s="37"/>
+      <c r="BZ24" s="37"/>
+      <c r="CA24" s="37"/>
+      <c r="CB24" s="37"/>
+      <c r="CC24" s="37"/>
+      <c r="CD24" s="37"/>
+      <c r="CE24" s="38"/>
     </row>
     <row r="25" spans="1:83" ht="123.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
+      <c r="A25" s="32">
         <v>1</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="36" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="30" t="s">
         <v>166</v>
       </c>
@@ -15514,53 +15512,53 @@
       <c r="BA25" s="30"/>
       <c r="BB25" s="30"/>
       <c r="BC25" s="30"/>
-      <c r="BD25" s="31" t="s">
+      <c r="BD25" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="BE25" s="32"/>
-      <c r="BF25" s="32"/>
-      <c r="BG25" s="32"/>
-      <c r="BH25" s="32"/>
-      <c r="BI25" s="32"/>
-      <c r="BJ25" s="32"/>
-      <c r="BK25" s="32"/>
-      <c r="BL25" s="32"/>
-      <c r="BM25" s="32"/>
-      <c r="BN25" s="32"/>
-      <c r="BO25" s="32"/>
-      <c r="BP25" s="32"/>
-      <c r="BQ25" s="32"/>
-      <c r="BR25" s="32"/>
-      <c r="BS25" s="32"/>
-      <c r="BT25" s="32"/>
-      <c r="BU25" s="32"/>
-      <c r="BV25" s="32"/>
-      <c r="BW25" s="32"/>
-      <c r="BX25" s="32"/>
-      <c r="BY25" s="32"/>
-      <c r="BZ25" s="32"/>
-      <c r="CA25" s="32"/>
-      <c r="CB25" s="32"/>
-      <c r="CC25" s="32"/>
-      <c r="CD25" s="32"/>
-      <c r="CE25" s="33"/>
+      <c r="BE25" s="34"/>
+      <c r="BF25" s="34"/>
+      <c r="BG25" s="34"/>
+      <c r="BH25" s="34"/>
+      <c r="BI25" s="34"/>
+      <c r="BJ25" s="34"/>
+      <c r="BK25" s="34"/>
+      <c r="BL25" s="34"/>
+      <c r="BM25" s="34"/>
+      <c r="BN25" s="34"/>
+      <c r="BO25" s="34"/>
+      <c r="BP25" s="34"/>
+      <c r="BQ25" s="34"/>
+      <c r="BR25" s="34"/>
+      <c r="BS25" s="34"/>
+      <c r="BT25" s="34"/>
+      <c r="BU25" s="34"/>
+      <c r="BV25" s="34"/>
+      <c r="BW25" s="34"/>
+      <c r="BX25" s="34"/>
+      <c r="BY25" s="34"/>
+      <c r="BZ25" s="34"/>
+      <c r="CA25" s="34"/>
+      <c r="CB25" s="34"/>
+      <c r="CC25" s="34"/>
+      <c r="CD25" s="34"/>
+      <c r="CE25" s="35"/>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="32">
         <f xml:space="preserve"> $A25 + 1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="38"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
@@ -15604,51 +15602,51 @@
       <c r="BA26" s="30"/>
       <c r="BB26" s="30"/>
       <c r="BC26" s="30"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="32"/>
-      <c r="BF26" s="32"/>
-      <c r="BG26" s="32"/>
-      <c r="BH26" s="32"/>
-      <c r="BI26" s="32"/>
-      <c r="BJ26" s="32"/>
-      <c r="BK26" s="32"/>
-      <c r="BL26" s="32"/>
-      <c r="BM26" s="32"/>
-      <c r="BN26" s="32"/>
-      <c r="BO26" s="32"/>
-      <c r="BP26" s="32"/>
-      <c r="BQ26" s="32"/>
-      <c r="BR26" s="32"/>
-      <c r="BS26" s="32"/>
-      <c r="BT26" s="32"/>
-      <c r="BU26" s="32"/>
-      <c r="BV26" s="32"/>
-      <c r="BW26" s="32"/>
-      <c r="BX26" s="32"/>
-      <c r="BY26" s="32"/>
-      <c r="BZ26" s="32"/>
-      <c r="CA26" s="32"/>
-      <c r="CB26" s="32"/>
-      <c r="CC26" s="32"/>
-      <c r="CD26" s="32"/>
-      <c r="CE26" s="33"/>
+      <c r="BD26" s="33"/>
+      <c r="BE26" s="34"/>
+      <c r="BF26" s="34"/>
+      <c r="BG26" s="34"/>
+      <c r="BH26" s="34"/>
+      <c r="BI26" s="34"/>
+      <c r="BJ26" s="34"/>
+      <c r="BK26" s="34"/>
+      <c r="BL26" s="34"/>
+      <c r="BM26" s="34"/>
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="34"/>
+      <c r="BR26" s="34"/>
+      <c r="BS26" s="34"/>
+      <c r="BT26" s="34"/>
+      <c r="BU26" s="34"/>
+      <c r="BV26" s="34"/>
+      <c r="BW26" s="34"/>
+      <c r="BX26" s="34"/>
+      <c r="BY26" s="34"/>
+      <c r="BZ26" s="34"/>
+      <c r="CA26" s="34"/>
+      <c r="CB26" s="34"/>
+      <c r="CC26" s="34"/>
+      <c r="CD26" s="34"/>
+      <c r="CE26" s="35"/>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
+      <c r="A27" s="32">
         <f t="shared" ref="A27:A29" si="1" xml:space="preserve"> $A26 + 1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
@@ -15692,51 +15690,51 @@
       <c r="BA27" s="30"/>
       <c r="BB27" s="30"/>
       <c r="BC27" s="30"/>
-      <c r="BD27" s="31"/>
-      <c r="BE27" s="32"/>
-      <c r="BF27" s="32"/>
-      <c r="BG27" s="32"/>
-      <c r="BH27" s="32"/>
-      <c r="BI27" s="32"/>
-      <c r="BJ27" s="32"/>
-      <c r="BK27" s="32"/>
-      <c r="BL27" s="32"/>
-      <c r="BM27" s="32"/>
-      <c r="BN27" s="32"/>
-      <c r="BO27" s="32"/>
-      <c r="BP27" s="32"/>
-      <c r="BQ27" s="32"/>
-      <c r="BR27" s="32"/>
-      <c r="BS27" s="32"/>
-      <c r="BT27" s="32"/>
-      <c r="BU27" s="32"/>
-      <c r="BV27" s="32"/>
-      <c r="BW27" s="32"/>
-      <c r="BX27" s="32"/>
-      <c r="BY27" s="32"/>
-      <c r="BZ27" s="32"/>
-      <c r="CA27" s="32"/>
-      <c r="CB27" s="32"/>
-      <c r="CC27" s="32"/>
-      <c r="CD27" s="32"/>
-      <c r="CE27" s="33"/>
+      <c r="BD27" s="33"/>
+      <c r="BE27" s="34"/>
+      <c r="BF27" s="34"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="34"/>
+      <c r="BI27" s="34"/>
+      <c r="BJ27" s="34"/>
+      <c r="BK27" s="34"/>
+      <c r="BL27" s="34"/>
+      <c r="BM27" s="34"/>
+      <c r="BN27" s="34"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="34"/>
+      <c r="BQ27" s="34"/>
+      <c r="BR27" s="34"/>
+      <c r="BS27" s="34"/>
+      <c r="BT27" s="34"/>
+      <c r="BU27" s="34"/>
+      <c r="BV27" s="34"/>
+      <c r="BW27" s="34"/>
+      <c r="BX27" s="34"/>
+      <c r="BY27" s="34"/>
+      <c r="BZ27" s="34"/>
+      <c r="CA27" s="34"/>
+      <c r="CB27" s="34"/>
+      <c r="CC27" s="34"/>
+      <c r="CD27" s="34"/>
+      <c r="CE27" s="35"/>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A28" s="35">
+      <c r="A28" s="32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
@@ -15780,51 +15778,51 @@
       <c r="BA28" s="30"/>
       <c r="BB28" s="30"/>
       <c r="BC28" s="30"/>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="32"/>
-      <c r="BG28" s="32"/>
-      <c r="BH28" s="32"/>
-      <c r="BI28" s="32"/>
-      <c r="BJ28" s="32"/>
-      <c r="BK28" s="32"/>
-      <c r="BL28" s="32"/>
-      <c r="BM28" s="32"/>
-      <c r="BN28" s="32"/>
-      <c r="BO28" s="32"/>
-      <c r="BP28" s="32"/>
-      <c r="BQ28" s="32"/>
-      <c r="BR28" s="32"/>
-      <c r="BS28" s="32"/>
-      <c r="BT28" s="32"/>
-      <c r="BU28" s="32"/>
-      <c r="BV28" s="32"/>
-      <c r="BW28" s="32"/>
-      <c r="BX28" s="32"/>
-      <c r="BY28" s="32"/>
-      <c r="BZ28" s="32"/>
-      <c r="CA28" s="32"/>
-      <c r="CB28" s="32"/>
-      <c r="CC28" s="32"/>
-      <c r="CD28" s="32"/>
-      <c r="CE28" s="33"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="34"/>
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="34"/>
+      <c r="BJ28" s="34"/>
+      <c r="BK28" s="34"/>
+      <c r="BL28" s="34"/>
+      <c r="BM28" s="34"/>
+      <c r="BN28" s="34"/>
+      <c r="BO28" s="34"/>
+      <c r="BP28" s="34"/>
+      <c r="BQ28" s="34"/>
+      <c r="BR28" s="34"/>
+      <c r="BS28" s="34"/>
+      <c r="BT28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="34"/>
+      <c r="BW28" s="34"/>
+      <c r="BX28" s="34"/>
+      <c r="BY28" s="34"/>
+      <c r="BZ28" s="34"/>
+      <c r="CA28" s="34"/>
+      <c r="CB28" s="34"/>
+      <c r="CC28" s="34"/>
+      <c r="CD28" s="34"/>
+      <c r="CE28" s="35"/>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
+      <c r="A29" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
@@ -15868,72 +15866,134 @@
       <c r="BA29" s="30"/>
       <c r="BB29" s="30"/>
       <c r="BC29" s="30"/>
-      <c r="BD29" s="31"/>
-      <c r="BE29" s="32"/>
-      <c r="BF29" s="32"/>
-      <c r="BG29" s="32"/>
-      <c r="BH29" s="32"/>
-      <c r="BI29" s="32"/>
-      <c r="BJ29" s="32"/>
-      <c r="BK29" s="32"/>
-      <c r="BL29" s="32"/>
-      <c r="BM29" s="32"/>
-      <c r="BN29" s="32"/>
-      <c r="BO29" s="32"/>
-      <c r="BP29" s="32"/>
-      <c r="BQ29" s="32"/>
-      <c r="BR29" s="32"/>
-      <c r="BS29" s="32"/>
-      <c r="BT29" s="32"/>
-      <c r="BU29" s="32"/>
-      <c r="BV29" s="32"/>
-      <c r="BW29" s="32"/>
-      <c r="BX29" s="32"/>
-      <c r="BY29" s="32"/>
-      <c r="BZ29" s="32"/>
-      <c r="CA29" s="32"/>
-      <c r="CB29" s="32"/>
-      <c r="CC29" s="32"/>
-      <c r="CD29" s="32"/>
-      <c r="CE29" s="33"/>
+      <c r="BD29" s="33"/>
+      <c r="BE29" s="34"/>
+      <c r="BF29" s="34"/>
+      <c r="BG29" s="34"/>
+      <c r="BH29" s="34"/>
+      <c r="BI29" s="34"/>
+      <c r="BJ29" s="34"/>
+      <c r="BK29" s="34"/>
+      <c r="BL29" s="34"/>
+      <c r="BM29" s="34"/>
+      <c r="BN29" s="34"/>
+      <c r="BO29" s="34"/>
+      <c r="BP29" s="34"/>
+      <c r="BQ29" s="34"/>
+      <c r="BR29" s="34"/>
+      <c r="BS29" s="34"/>
+      <c r="BT29" s="34"/>
+      <c r="BU29" s="34"/>
+      <c r="BV29" s="34"/>
+      <c r="BW29" s="34"/>
+      <c r="BX29" s="34"/>
+      <c r="BY29" s="34"/>
+      <c r="BZ29" s="34"/>
+      <c r="CA29" s="34"/>
+      <c r="CB29" s="34"/>
+      <c r="CC29" s="34"/>
+      <c r="CD29" s="34"/>
+      <c r="CE29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="V21:AD21"/>
+    <mergeCell ref="AE21:AM21"/>
+    <mergeCell ref="AN21:BC21"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="V20:AD20"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AN20:BC20"/>
+    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AN18:BC18"/>
+    <mergeCell ref="BD18:CE18"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="M29:X29"/>
+    <mergeCell ref="Y29:AJ29"/>
+    <mergeCell ref="AK29:BC29"/>
+    <mergeCell ref="BD5:CE5"/>
+    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="BD16:CE16"/>
+    <mergeCell ref="BD24:CE24"/>
+    <mergeCell ref="BD25:CE25"/>
+    <mergeCell ref="BD26:CE26"/>
+    <mergeCell ref="BD27:CE27"/>
+    <mergeCell ref="BD28:CE28"/>
+    <mergeCell ref="BD29:CE29"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="M28:X28"/>
+    <mergeCell ref="Y28:AJ28"/>
+    <mergeCell ref="AK28:BC28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="AK27:BC27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="Y26:AJ26"/>
+    <mergeCell ref="AK26:BC26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="Y25:AJ25"/>
+    <mergeCell ref="AK25:BC25"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M14:U14"/>
     <mergeCell ref="AK24:BC24"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="AN16:BC16"/>
@@ -15958,103 +16018,41 @@
     <mergeCell ref="AE19:AM19"/>
     <mergeCell ref="AN19:BC19"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="Y26:AJ26"/>
-    <mergeCell ref="AK26:BC26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="Y25:AJ25"/>
-    <mergeCell ref="AK25:BC25"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK28:BC28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="M27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="AK27:BC27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M29:X29"/>
-    <mergeCell ref="Y29:AJ29"/>
-    <mergeCell ref="AK29:BC29"/>
-    <mergeCell ref="BD5:CE5"/>
-    <mergeCell ref="BD6:CE6"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="BD16:CE16"/>
-    <mergeCell ref="BD24:CE24"/>
-    <mergeCell ref="BD25:CE25"/>
-    <mergeCell ref="BD26:CE26"/>
-    <mergeCell ref="BD27:CE27"/>
-    <mergeCell ref="BD28:CE28"/>
-    <mergeCell ref="BD29:CE29"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="M28:X28"/>
-    <mergeCell ref="Y28:AJ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AN18:BC18"/>
-    <mergeCell ref="BD18:CE18"/>
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="V21:AD21"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="AN21:BC21"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="V20:AD20"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AN20:BC20"/>
-    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16071,90 +16069,90 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
     </row>
     <row r="3" spans="1:35" ht="238.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>1</v>
       </c>
       <c r="B3" s="43"/>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="45" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="43">
@@ -16162,39 +16160,39 @@
         <v>2</v>
       </c>
       <c r="B4" s="43"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="43">
@@ -16202,39 +16200,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="43"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="43">
@@ -16242,39 +16240,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="43"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="43">
@@ -16282,48 +16280,42 @@
         <v>5</v>
       </c>
       <c r="B7" s="43"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -16336,6 +16328,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
